--- a/data/hotels_by_city/Dallas/Dallas_shard_729.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_729.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="679">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1923 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r577522316-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>55922</t>
+  </si>
+  <si>
+    <t>106995</t>
+  </si>
+  <si>
+    <t>577522316</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Quiet and secluded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like the location.  Very clean and quiet. When we checked in I had made a mistake and he was very nice to xhange it with no problem.  The room was very clean.  I think the only complaint is that one more pillow would of been nice but it didn't ruin anything. </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r572746757-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>572746757</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>Worst Hotel Experience, Stay Felt More like a Motel</t>
+  </si>
+  <si>
+    <t>I travel quite frequently, and this was by far one of the worst hotel experience. I paid $179/night. The staff at the front desk was far from friendly. When asked where I can get food, the response was "you can order pizza"
+Hence, I bought the instant cup of noodles at the front desk. When I asked for utensil/fork, the reply from the front desk staff was "it should be in the corner right there or in your room". Went to my room, no utensil to be found.
+Later that night, after my concert, I attempt to ask for a fork before returning to my room. The front desk staff was quite grumpy and pointed in the same direction. I proceed to tell her that I could not find a fork earlier in the day, and her response was "it should be there".  I thought that they may have restock the utensils, but upon going to the corner 'where she pointed", still no fork to be found. By that time, I was quite annoyed and upset. For $179/night, please pretend that you like your job and get me a fork.
+In addition, I had to go to the Verizon Theater Concert that night. There was a sign that said $15/roundtrip to the concert. However, I decided to uber on the way there. On the way back, it was hard to find uber, so I called the ride that the hotel...I travel quite frequently, and this was by far one of the worst hotel experience. I paid $179/night. The staff at the front desk was far from friendly. When asked where I can get food, the response was "you can order pizza"Hence, I bought the instant cup of noodles at the front desk. When I asked for utensil/fork, the reply from the front desk staff was "it should be in the corner right there or in your room". Went to my room, no utensil to be found.Later that night, after my concert, I attempt to ask for a fork before returning to my room. The front desk staff was quite grumpy and pointed in the same direction. I proceed to tell her that I could not find a fork earlier in the day, and her response was "it should be there".  I thought that they may have restock the utensils, but upon going to the corner 'where she pointed", still no fork to be found. By that time, I was quite annoyed and upset. For $179/night, please pretend that you like your job and get me a fork.In addition, I had to go to the Verizon Theater Concert that night. There was a sign that said $15/roundtrip to the concert. However, I decided to uber on the way there. On the way back, it was hard to find uber, so I called the ride that the hotel was offering. The driver was quite annoyed at me and said "why didn't you do the roundtrip with me? why did you take uber in the first place?".  I paid $15 for the trip, regardless that it was one way. And there was only the two of us in the van. Hence, if I had known, I would have just stayed at Super 8. Worst hotel experience ever!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I travel quite frequently, and this was by far one of the worst hotel experience. I paid $179/night. The staff at the front desk was far from friendly. When asked where I can get food, the response was "you can order pizza"
+Hence, I bought the instant cup of noodles at the front desk. When I asked for utensil/fork, the reply from the front desk staff was "it should be in the corner right there or in your room". Went to my room, no utensil to be found.
+Later that night, after my concert, I attempt to ask for a fork before returning to my room. The front desk staff was quite grumpy and pointed in the same direction. I proceed to tell her that I could not find a fork earlier in the day, and her response was "it should be there".  I thought that they may have restock the utensils, but upon going to the corner 'where she pointed", still no fork to be found. By that time, I was quite annoyed and upset. For $179/night, please pretend that you like your job and get me a fork.
+In addition, I had to go to the Verizon Theater Concert that night. There was a sign that said $15/roundtrip to the concert. However, I decided to uber on the way there. On the way back, it was hard to find uber, so I called the ride that the hotel...I travel quite frequently, and this was by far one of the worst hotel experience. I paid $179/night. The staff at the front desk was far from friendly. When asked where I can get food, the response was "you can order pizza"Hence, I bought the instant cup of noodles at the front desk. When I asked for utensil/fork, the reply from the front desk staff was "it should be in the corner right there or in your room". Went to my room, no utensil to be found.Later that night, after my concert, I attempt to ask for a fork before returning to my room. The front desk staff was quite grumpy and pointed in the same direction. I proceed to tell her that I could not find a fork earlier in the day, and her response was "it should be there".  I thought that they may have restock the utensils, but upon going to the corner 'where she pointed", still no fork to be found. By that time, I was quite annoyed and upset. For $179/night, please pretend that you like your job and get me a fork.In addition, I had to go to the Verizon Theater Concert that night. There was a sign that said $15/roundtrip to the concert. However, I decided to uber on the way there. On the way back, it was hard to find uber, so I called the ride that the hotel was offering. The driver was quite annoyed at me and said "why didn't you do the roundtrip with me? why did you take uber in the first place?".  I paid $15 for the trip, regardless that it was one way. And there was only the two of us in the van. Hence, if I had known, I would have just stayed at Super 8. Worst hotel experience ever!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r570914373-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>570914373</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r561570066-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>561570066</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>By far one of my best trips to a super 8! I’ve never felt so comfortable around strangers before these people and they pillowed are amazing too !!!</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r557368462-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>557368462</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Roaches and sewage smell in bathroom</t>
+  </si>
+  <si>
+    <t>We only stayed 1 night and didn't spend much time in room but IF we had the sewage odor from the bathroom would have required us to have requested other accommodations. Roaches in bathroom were dead so at least they are trying to exterminate.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r555180211-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>555180211</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>BRING BACK NICE YOUNG FRONT DESK LADY</t>
+  </si>
+  <si>
+    <t>I have been to this locations many times but this might be my last! Service horrible. Getting worse every time. Front desk man I think is drunk and rude! The young lady was much better.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r541475956-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>541475956</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>ALL rooms SMOKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let me start off with the smell... like a 10 year old ash tray. I kindly go to the front desk and ask for a non smoking room because mine came with complementary ash tray and match book. I am told all rooms are smoking. Not to mention the huge hole in the middle of the wall. The lobby area smelled of rancid old perfume that will linger on your clothing. DO NOT WASTE MONEY. Pay the extra $10-15 for a NICE hotel this is a ran down, roach infested, motel. It is not a smoke free environment at all. </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r539729908-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>539729908</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Dallas vs Cheifs Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The only problem I had was the pillows were not big enough, but everything else for the weekend was great. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r539152824-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>539152824</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>This was an ok stay.</t>
+  </si>
+  <si>
+    <t>The people here were able to accommodate me and the group I was traveling with on a very short notice. However, once I was in the room, the bathroom looked like it needed a new coat of paint as there was splotches of paint in the bathroom area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r535473600-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>535473600</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>Good location, decent value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booked this in May for a Dallas trip.  Friendly staff and access to I30 made this a good vacation stay. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r532378895-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>532378895</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>Worst Hotel Ever</t>
+  </si>
+  <si>
+    <t>The toilet would not flush properly, management would not help with it told us to stand there and hold the handle down.  Guest woke us up at 2:40 am yelling and screaming and arguing for over an hour.  Place smelled, no elevator.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r531301024-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>531301024</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Disappointment</t>
+  </si>
+  <si>
+    <t>I had to leave the afternoon of my 2nd night because my daughter wasS in an accident. I did not get my money back.i know they rented that room again that afternoon. I should have gotten something back!</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r527295739-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>527295739</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Basic Place to Stay</t>
+  </si>
+  <si>
+    <t>My dad and I spent a Friday and Saturday night here.  It was just a place to sleep and shower.  The WiFi was weak, but we were at the very end of the hall.  My room had a hole in the wall by the window; it looked like someone had kicked it.  It didn't bother me, but it looked bad.  The shower water nozzles were loose and janky. The first splash of water that came out looked rusty.  On the plus side, it wasn't too crowded.  It was easy to get to and from I30 although there wasn't much in the immediate area.  The breakfast seemed small and adequate, but I just had coffee. The guy working the counter seemed friendly and helpful. It was not the best but not the worst either.MoreShow less</t>
+  </si>
+  <si>
+    <t>My dad and I spent a Friday and Saturday night here.  It was just a place to sleep and shower.  The WiFi was weak, but we were at the very end of the hall.  My room had a hole in the wall by the window; it looked like someone had kicked it.  It didn't bother me, but it looked bad.  The shower water nozzles were loose and janky. The first splash of water that came out looked rusty.  On the plus side, it wasn't too crowded.  It was easy to get to and from I30 although there wasn't much in the immediate area.  The breakfast seemed small and adequate, but I just had coffee. The guy working the counter seemed friendly and helpful. It was not the best but not the worst either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r524909550-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>524909550</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>My stay at Super 8</t>
+  </si>
+  <si>
+    <t>We had a good stay at the Super 8 in Grand Prairie, TX. The staff was helpful and friendly. The room was clean as was the bathroom. The internet was difficult to log on to, however once in, all was smooth. I would recommend this hotel !!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r524478061-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>524478061</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Bad News</t>
+  </si>
+  <si>
+    <t>I have stayed at crack houses nicer than this place. Due to limited rooms in the area we thought a Super 8 can't be that bad. We were sadly mistaken. We checked in and asked for a roll a way bed that we reserved all 3 were already spoken for. We walk in room and it smells like a haunted house that was underwater. Black mold lined the walls. Water damage was everywhere. Remote didn't work and lights would not come on. I will never stay at a Super 8 again. I may never stay at a Marriott for that matter. This was hands down the worst experience in our lives and we travel quite frequently.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at crack houses nicer than this place. Due to limited rooms in the area we thought a Super 8 can't be that bad. We were sadly mistaken. We checked in and asked for a roll a way bed that we reserved all 3 were already spoken for. We walk in room and it smells like a haunted house that was underwater. Black mold lined the walls. Water damage was everywhere. Remote didn't work and lights would not come on. I will never stay at a Super 8 again. I may never stay at a Marriott for that matter. This was hands down the worst experience in our lives and we travel quite frequently.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r508782138-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>508782138</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>Our stay here this time SUCKED!!!</t>
+  </si>
+  <si>
+    <t>When I first got to the hotel to check in I had ask for a 1 bedroom king and the only thing they had left was a 2 bedroom handicapped room I was going to try and get a room at another hotel but because of it being the weekend everything was to expensive. Then later I had to go to Motel 6 next door to get ice because there ice machine was broken, they don't have a pool at all, &amp; then after all of that the next morning at breakfast there was no coffee the orange juice and apple juice was out there was no milk just everything was out and had to wait on someone from the front desk to refresh everything. It was just a bad stay and the only positive part of the breakfast that morning was Kylie. She went out of her way to make sure we had everything we needed. Also the smelled like mold and I had to lite candles to get rid of the smell. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>When I first got to the hotel to check in I had ask for a 1 bedroom king and the only thing they had left was a 2 bedroom handicapped room I was going to try and get a room at another hotel but because of it being the weekend everything was to expensive. Then later I had to go to Motel 6 next door to get ice because there ice machine was broken, they don't have a pool at all, &amp; then after all of that the next morning at breakfast there was no coffee the orange juice and apple juice was out there was no milk just everything was out and had to wait on someone from the front desk to refresh everything. It was just a bad stay and the only positive part of the breakfast that morning was Kylie. She went out of her way to make sure we had everything we needed. Also the smelled like mold and I had to lite candles to get rid of the smell. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r508120409-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>508120409</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the room smelled, the refrigerator was dirty, the ac wasn't working properly, and the breakfast was horrible, there was only cereal and waffles. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r504943056-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>504943056</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Super 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The only thing.i did not like at this super 8 was the tiny pillows and the hard Bed. The staff, location, and price were ok. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r494102930-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>494102930</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The internet service was horrible.  I went days without resolution.  Finally, they changed my room and Internet worked some of the time (had to create a hop spot with my cell to conduct business.  Rooms were dirty.  If my wife accompanied me, she would have insisted we move to another hotel. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r491000809-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>491000809</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>USA Qualifier at Jennifer McFalls park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good location, close to our destination. Service was acceptable, but not really friendly. Not satisfied at all with breakfast, they served cereal, instant oatmeal. toast and other quick foods. the pillows were flat and beds were hard and didn't sleep very well. we noticed the back door didn't lock and others could get in to hallway without a card. Overall was average -poor and will not stay there again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r489724483-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>489724483</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Motel 8 Grand Prairie</t>
+  </si>
+  <si>
+    <t>The best thing about the motel was that the shower had extremely hot water which is great for a shower. I was disappointed with the breakfast staff and selection. If you were preparing breakfast at 9 they were taking the food up with no consideration for you preparing food. Also the yogurt and other things with dates on them were out of date by 15 days, I suggest look at the expiration date before eating the food, because I experiences stomach issues after eating the food. The cleaning staff didn't start cleaning my room one day until 6 in the afternoon which was very disappointing, not to mention didn't leave towels or wash clothes. Upon going to the front desk to get some they said they didn't have any they would bring in the morning. For right at 90 dollars a night before taxes they should have went and bought some to satisfy the guest. I have stayed at this place in the past a few times, but it has gone down hill since I was there 2 years ago. I will not be staying here again when I travel to Six Flags area again. MoreShow less</t>
+  </si>
+  <si>
+    <t>The best thing about the motel was that the shower had extremely hot water which is great for a shower. I was disappointed with the breakfast staff and selection. If you were preparing breakfast at 9 they were taking the food up with no consideration for you preparing food. Also the yogurt and other things with dates on them were out of date by 15 days, I suggest look at the expiration date before eating the food, because I experiences stomach issues after eating the food. The cleaning staff didn't start cleaning my room one day until 6 in the afternoon which was very disappointing, not to mention didn't leave towels or wash clothes. Upon going to the front desk to get some they said they didn't have any they would bring in the morning. For right at 90 dollars a night before taxes they should have went and bought some to satisfy the guest. I have stayed at this place in the past a few times, but it has gone down hill since I was there 2 years ago. I will not be staying here again when I travel to Six Flags area again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r481305034-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>481305034</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Really, really average!</t>
+  </si>
+  <si>
+    <t>My room smelled like mildew! The odor was strong, and "dampened" my enthusiasm for this particular motel! Also, the breakfast was minimal, versus other Super 8s that I have stayed at.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r476882486-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>476882486</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>So quiet and relaxing</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay here. It was  very nice getaway and the bed was sooo comfortable and huge. Pillows were soft and I really needed the rest. I will stay there again when I visit me son.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r475137492-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>475137492</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Needs updating</t>
+  </si>
+  <si>
+    <t>My experience at this location was not as pleasant. The hotel needs to be updated. My toilet overflowed after one use. I wasn't happy with the old spell in the hallway and room. If updated I probably would have been an better stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r472517970-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>472517970</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Last chance hotel</t>
+  </si>
+  <si>
+    <t>The room smelled like mold, stale beer and kitty litter! Bought an air freshener which helped. Beer/drink cans around stairway for days. Broken beer bottles in grass near parking. Not worth what the rental was per night. The place needs to be refreshed/updated.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r471980397-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>471980397</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Comfy bed!</t>
+  </si>
+  <si>
+    <t>The room was very nice and the bed was surprisingly comfy! Most hotel beds are tolerable to sleep on but the bed in my room was perfect.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r463244476-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>463244476</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Our bathroom had roach. I complain. I wanted the bathroom to be clean and all they did was get a clinex to remove it. I did not sleep comfortable. Not enough pillows in each bed. Over price room.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r452409661-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>452409661</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>Sweet ppl but poor rooms</t>
+  </si>
+  <si>
+    <t>The first room: the door locks had been damaged and it would not shut properly, all but 1 light was broken, and it smelled moldy. I called down and asked for another room. The night staff was very sweet and quick to help. The second room: clean and smelled better, working lights andocks but the heater blew cold air all night.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r449226597-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>449226597</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Weekend for Monday night football</t>
+  </si>
+  <si>
+    <t>The location was excellent to travel to stadium. Located in the middle between Dallas and Arlington so commute wasn't far. Breakfast was OK enough to hold for lunch elsewhere. One major problem in room was the strong odor of urine in a corner which was disgusting. How can housekeeping not notice?!! So we stayed away from THAT corner. Most of the time we weren't in the room so no biggie. If you're looking for a place to sleep only and be out and about highly recommend!!</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r448037315-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>448037315</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t>Cheap and smelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was an odor in the lobby and dining area. It smelled of cigars and human waste. The attendant at the desk was in no hurry to check us in. The room itself was mediocre. Restroom door had something brown splattered on it. The beds were very firm. The breakfast consisted of Texas shaped pancakes, bread, two kinds of cereal, spoiled apples, packaged cinnamon rolls and yogurt. The trash smelled so bad we had to eat in our room. For a hotel belonging to the Wyndam family, I was expecting more. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r434031678-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>434031678</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room had a very strong paint smell and the toilet was not flushing properly. Also the water was not very hot. The beds were comfortable and the room appeared clean. The hotel was close to where I needed to be and was affordable, The person at the front desk was kind. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r432441887-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>432441887</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>DONT STAY HERE</t>
+  </si>
+  <si>
+    <t>This a flea bag dive Motel there were fluids on the bathroom door and floor what looked like maybe blood on the floor</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r431630933-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>431630933</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>2 nights stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall the stay was pleasant.  Grand Prairie was limited on parking because of some large Asplun tree trimming trucks. The only other thing that needs to improve is the type of breakfast available. Continental breakfast gets old. Need eggs, bacon, sausage, biscuits and gravy. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r419137466-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>419137466</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Great location, lovely rooms. Only complaint is the construction trucks taking up the front of the parking lot during our stay. Love the swipe entrance to the hallway right by our room. Breakfast was fantastic, especially the waffles shaped like the state of TEXAS!!!!!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r416307791-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>416307791</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Dump. Third World all the way.</t>
+  </si>
+  <si>
+    <t>This place SMELLS !!!! Terrible stay with inattentive staff. Avoid at all costs. Ancient building and bathroom. ZERO UPDATES. Next time I stay in Grand Prairie it definitely wont be here or at any other Wyndham property. I cant believe they have the balls to offer a room like this. Disgusting.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r414754838-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>414754838</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Ghetto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The pictures are very deceiving. Very hard to find. Beds were nice and comfy but paint was falling off tub and walls in bathroom. Gross </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r408973356-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>408973356</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Not a good experience</t>
+  </si>
+  <si>
+    <t>I was looking for an inexpensive hotel near Dallas Baptist University for three: my wife, an incoming freshman student, and me. I found this Super 8 online and reserved a room with 2 queen beds for 2 nights. We arrived late, and were not favorably impressed: there was no elevator (and our room was on the second floor), so we had to lug our huge suitcases up a flight of stairs; the lobby was OK, though somewhat shabby; and there were unsavory characters lurking about the property. The room turned out to be a smoking room with burn holes and stains in both bedspreads. We requested a non-smoking room and moved downstairs to a room that was just barely acceptable. We checked out the next morning and will not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was looking for an inexpensive hotel near Dallas Baptist University for three: my wife, an incoming freshman student, and me. I found this Super 8 online and reserved a room with 2 queen beds for 2 nights. We arrived late, and were not favorably impressed: there was no elevator (and our room was on the second floor), so we had to lug our huge suitcases up a flight of stairs; the lobby was OK, though somewhat shabby; and there were unsavory characters lurking about the property. The room turned out to be a smoking room with burn holes and stains in both bedspreads. We requested a non-smoking room and moved downstairs to a room that was just barely acceptable. We checked out the next morning and will not return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r406644627-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>406644627</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Baseball weekend - I'll move on next time</t>
+  </si>
+  <si>
+    <t>The motel was presented well, Breakfast very weak compared to other Super 8's.   Request of additional towels from Customer Service Desk claimed they did not have any and didn't have access to them but were busy surfing on the internet.  Hmmmm</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r402141261-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>402141261</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Great hotel and location for someone on a budget</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel every single time I've been to Grand Prairie. The location is great since it's very close to the Verizon Theater. I've stayed there in the summer months and the ac worked fine for me. There wasn't any roaches or any bugs in the rooms I've stayed it and the room was clean. The front desk is nice and friendly. Of course,it's not the absolute best hotel I've stayed at,but when I go to Texas it's good enough for me.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r398846309-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>398846309</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Things are not what you say</t>
+  </si>
+  <si>
+    <t>I decided on this location due to its proximity to where we where going around the DFW area. Another deciding factor was the "Hot Breakfast" that was advertised which in fact was a continental breakfast. Very disappointing especially for a child that has milk allergies and we had to make other arrangements due to this false statement</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r394503672-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>394503672</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>I've had better.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room and bath room were not clean. The furniture and headboard were dusty and the bedroom floor needed vacuuming. The bath room floor and tub were dirty. I went to Wal Mart and bought cleaning supplies for the bath room. There was no hot water in the sink. The bed was very hard. The room deco was nice. There were no eggs or any meat for breakfast. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r394339884-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>394339884</t>
+  </si>
+  <si>
+    <t>Would not stay again!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was very damp and musty. The exhaust fan in the bathroom didn't work, and they didn't change the bedding the first night. There was also water dripping from the ceiling onto the carpet. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r389512160-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>389512160</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Not going back there</t>
+  </si>
+  <si>
+    <t>Not impressed! No internet on the second floor. Hear person 2 dorrs down complain about roaches. Breakfast was laughable no coffee ready, madie it in the room instead, no fresh fruit to go with stale bread for toast! $100 to much for this stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r387084304-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>387084304</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Otr driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The place was very comfortable pet friendly nice rooms comfortable bed and it had a place to park an 18 wheeler over on the side called a lot of motels in the area and most wouldn't allow pets  but super 8 did and I went over I will definitely stay again </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r386521321-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>386521321</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Worst and dirtiest place ever......</t>
+  </si>
+  <si>
+    <t>We stayed here this past weekend--(June 25th-26th) because it was close to Lonestar Park where we race our horses.  It was horrible!  Mold in the bathroom, the faucet in the bathtub ran continuously and it was extremely hot throughout the hotel and in the rooms.  We saw roaches in our room when we turned the light on.  There are no amenities at this hotel.  No pool, workout facility and the breakfast, what little they had, was not good.  Terrible place--especially for the $81.00 plus tax-which was the cheapest room they offer.  Would rather pay 10.00 -20.00 extra dollars for a nice, clean room!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r376756232-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>376756232</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>the staff was able to hold me a room for a reasonable time for as i was coming to work later that day. I got off work later than expected and my attendant had my room ready.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r369646415-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>369646415</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>I always choose this property each week I stay in Dallas</t>
+  </si>
+  <si>
+    <t>I choose to stay here every week due to the comfort, customer service and location. I travel weekly for work to Dallas and this is the only place I like.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r368068532-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>368068532</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Great customer service!</t>
+  </si>
+  <si>
+    <t>I travelled from Scotland to the United States for the first time by myself this April. I was attending Wrestlemania and made all of my plans months in advance. When I arrive in Dallas I received an email from booking.com claiming they no longer had the room I booked back in November for the Days Inn across from the AT&amp;T Stadium. Thankfully, the super 8 were able to accommodate my booking during such a busy time and I had a roof over my head for the week. The room was VERY clean, and the staff were incredibly helpful and friendly. As this was my first real holiday abroad alone, I was scared and they made me feel very welcome. I felt very safe staying here.On my final night, my flight was delayed and I was put up in Dallas at a different hotel. There were several weird things which happened there, and I eventually heard a gunshot. This led to me handing in my keys at the reception, and jumping straight in an uber back to the Super 8. Again, they were very accommodating and I was able to get a room there and then.I was very happy staying here, and would have no hesitations booking here again should I decide to visit Dallas. Thanks again to their great staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>I travelled from Scotland to the United States for the first time by myself this April. I was attending Wrestlemania and made all of my plans months in advance. When I arrive in Dallas I received an email from booking.com claiming they no longer had the room I booked back in November for the Days Inn across from the AT&amp;T Stadium. Thankfully, the super 8 were able to accommodate my booking during such a busy time and I had a roof over my head for the week. The room was VERY clean, and the staff were incredibly helpful and friendly. As this was my first real holiday abroad alone, I was scared and they made me feel very welcome. I felt very safe staying here.On my final night, my flight was delayed and I was put up in Dallas at a different hotel. There were several weird things which happened there, and I eventually heard a gunshot. This led to me handing in my keys at the reception, and jumping straight in an uber back to the Super 8. Again, they were very accommodating and I was able to get a room there and then.I was very happy staying here, and would have no hesitations booking here again should I decide to visit Dallas. Thanks again to their great staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r361882296-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>361882296</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Unsafe</t>
+  </si>
+  <si>
+    <t>Can not believe there was no elevator in this place of business! ..This is a hotel that is two to three stories and has no elevator. .Stairs were unsafe and dangerous! ..Had no idea you can run a hotel that way...Will not ever stay there a gain! Very very unsafe!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r361670979-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>361670979</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>No complaints</t>
+  </si>
+  <si>
+    <t>Location is ideal.  It's far enough from the highway but it's easily accessible and findable.   It's close to att stadium, next to Verizon center.  No issues getting to Dallas, major venue for someone who dislikes city driving.Hotel is a basic standard hotel.  It has a breakfast area.  Serves cereal, danishes and waffles.  They have a vending machine with necessities like Advil.    The room (2 queen)...the mattress is firm, not too firm.  The pillows are small, but I asked for a third and issue resolved.  Clean.  Staff ... friendly.  Owner is attentive.  I called because I was running late by a day and they assured me everything was okay.  Overall I'm happy.  I was here for an event that sold out the hotel and the service I received never made it feel like that.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Location is ideal.  It's far enough from the highway but it's easily accessible and findable.   It's close to att stadium, next to Verizon center.  No issues getting to Dallas, major venue for someone who dislikes city driving.Hotel is a basic standard hotel.  It has a breakfast area.  Serves cereal, danishes and waffles.  They have a vending machine with necessities like Advil.    The room (2 queen)...the mattress is firm, not too firm.  The pillows are small, but I asked for a third and issue resolved.  Clean.  Staff ... friendly.  Owner is attentive.  I called because I was running late by a day and they assured me everything was okay.  Overall I'm happy.  I was here for an event that sold out the hotel and the service I received never made it feel like that.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r361511467-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>361511467</t>
+  </si>
+  <si>
+    <t>Crappy</t>
+  </si>
+  <si>
+    <t>Worse experience I ever had, the 1st room was dirty and the shower faucet was broken, complained to desk and they moved me to another room, once in the room and unloaded again the water was turned off for over 30 min, no bathroom or shower .. Will never stay here again and I am recommending to everyone I'm come in contact with for the loan star swap meet not to stay here either ... Terrible experience.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r355188067-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>355188067</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Overnight Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms were fine and area was quiet. There was construction going on in the area and hard to find location. This was my first time to Grand Prairie so was looking for things to do and enjoy. Went to a show at the Verizon Theatre. The breakfast serving are was not monitored and took along time to make sure there was enough food for others. We arrived for breakfast a little after 8 am and was not impressed with the workers. Other than this it was fine. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r354404545-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>354404545</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>My visit was only an overnight stay. I had a reservation and knew I was going to arrive very late and was still greeted warmly.Room was clean and comfortable. There was a light out in the bathroom and the exhaust fan didn't work, but I was too tired to care to ask for a repair or room change as it was almost midnight. I didn't think it would be a problem for me and it really was just a minor inconvenience in the morning as I got ready; I used the long mirror in the room to see what I was doing with my hair and make-up.I let the staff know as I checked out and he immediately said if I would have let him know, he could have replaced the bulb right away. Again, I wasn't worried about it and told him I just wanted him to know so they could address the issue before they rented that room again.I had my 3 children with me and felt safe. I would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>My visit was only an overnight stay. I had a reservation and knew I was going to arrive very late and was still greeted warmly.Room was clean and comfortable. There was a light out in the bathroom and the exhaust fan didn't work, but I was too tired to care to ask for a repair or room change as it was almost midnight. I didn't think it would be a problem for me and it really was just a minor inconvenience in the morning as I got ready; I used the long mirror in the room to see what I was doing with my hair and make-up.I let the staff know as I checked out and he immediately said if I would have let him know, he could have replaced the bulb right away. Again, I wasn't worried about it and told him I just wanted him to know so they could address the issue before they rented that room again.I had my 3 children with me and felt safe. I would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r352419154-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>352419154</t>
+  </si>
+  <si>
+    <t>03/02/2016</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>The rooms are great but the hallways smells like cigarettes other than that it was a great stay</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r329178915-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>329178915</t>
+  </si>
+  <si>
+    <t>11/26/2015</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>excwllwny location, roadside markings are pooor facility and employees were fine . The establishment is in need of remodeling</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r327244187-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>327244187</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>the super 8 moment</t>
+  </si>
+  <si>
+    <t>Over all the stay was good the fro.t desk people were curtiouse. And very helpful. The rooms were clean and there breakfast. Was good as well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r326256976-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>326256976</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>This stay was bad.  The room smelled terrible.  Our room...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This stay was bad.  The room smelled terrible.  Our room had dirty water in the restroom sink, there was a bar of soap that was open. There was trash in the restroom trash can.  One of the lamps did not work and the wall plug did not work.  The staff was very friendly though.  There was not much variety in the breakfast selection.  I would not stay here again.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r320492277-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>320492277</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Quick Stay</t>
+  </si>
+  <si>
+    <t>Well we did not know the hotel was remodeling so we had to wait at the front desk until the guys put our curtains back up in our rooms. Other than that it was ok.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r318753415-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>318753415</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Never book this hotel</t>
+  </si>
+  <si>
+    <t>Shower broken,drinks left from previous guest still in fridge, access cards from previous guest still in the room which means it wasnt cleaned properly.   And ac didnt work...all in all a roach motel that i will never stay in again....thanks...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r318741266-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>318741266</t>
+  </si>
+  <si>
+    <t>Very uncomfortable bed and pillows. Top of toilet was...</t>
+  </si>
+  <si>
+    <t>Very uncomfortable bed and pillows. Top of toilet was dirty, there was an open safety pin sticking out the side of the bed holding the mattress together (dangerous for small children).....but it was relatively cheap for the area and a good location for us</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r294786647-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>294786647</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Hotel needs to be updated, beds are small and not comfy at...</t>
+  </si>
+  <si>
+    <t>Hotel needs to be updated, beds are small and not comfy at all. tried to get an extra blanket but couldn't get one because they didn't have any at the front desk.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r293993149-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>293993149</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>It was great cause the location of the hotel to the highways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love the customer service from the very beginning cause I called for directions &amp; she was very helpful plus I also enjoyed the room cause it was very.clean! I also enjoyed going to eat breakfast cause they serve the food I liked! I'll be staying at the hotel location for future visits to Grand Prairie! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r292756863-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>292756863</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Staff was pleasant, helpful. Rooms however (I changed to...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff was pleasant, helpful. Rooms however (I changed to another because of slamming doors one night) need maintenance. One toilet barely flushed; towel rack coming off the wall. Power went out for a short time one night. Housekeeping good in my opinion.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r289328524-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>289328524</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Great location centered to great attractions. Room smelled...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location centered to great attractions. Room smelled damped and wet. We had to go buy air fresheners and carpet powder to freshen up the room. Breakfast was very poor. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r287459091-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>287459091</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r285671968-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>285671968</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Robert McGinley Martinez</t>
+  </si>
+  <si>
+    <t>The cause of the bad service and dirty rooms is that this place like many others now are run by families from India and they live on the property and are trying to live dirt cheap. Since you are technically in their home you are expected to do as they say and live as poorly as they do. The trick is to call the front desk of any hotel and see who answers. If they speak with a foreign accent call another hotel, you will save yourself alot of trouble. The people from India do not honor your reservation if more people show up before you do and they will not resolve any problems you have while in their home/hotel. I have seen the owners grandmothers who were well past sixty years old in San Antonio Howard Johnson and Motel 6 Arkansas cleaning the property around the motel. I had been booking at motel 6 for 10 years because the hotels were company owned but found out last year they are franchising when twice I stayed in 2 different motel 6 and they were friendly but extra vigilant of my coming and going and something was broken or didn't work in both rooms I stayed in. People from India get loans and grants to fund their franchise fees but anyway, why do American born people not franchise instead. Companies you are getting bad reputations from franchising to foreigners, they do...The cause of the bad service and dirty rooms is that this place like many others now are run by families from India and they live on the property and are trying to live dirt cheap. Since you are technically in their home you are expected to do as they say and live as poorly as they do. The trick is to call the front desk of any hotel and see who answers. If they speak with a foreign accent call another hotel, you will save yourself alot of trouble. The people from India do not honor your reservation if more people show up before you do and they will not resolve any problems you have while in their home/hotel. I have seen the owners grandmothers who were well past sixty years old in San Antonio Howard Johnson and Motel 6 Arkansas cleaning the property around the motel. I had been booking at motel 6 for 10 years because the hotels were company owned but found out last year they are franchising when twice I stayed in 2 different motel 6 and they were friendly but extra vigilant of my coming and going and something was broken or didn't work in both rooms I stayed in. People from India get loans and grants to fund their franchise fees but anyway, why do American born people not franchise instead. Companies you are getting bad reputations from franchising to foreigners, they do not follow the hotels promise of service and how can they when they come from countries where they learn to watch out for themselves first and step over people if you have to, to get ahead.MoreShow less</t>
+  </si>
+  <si>
+    <t>The cause of the bad service and dirty rooms is that this place like many others now are run by families from India and they live on the property and are trying to live dirt cheap. Since you are technically in their home you are expected to do as they say and live as poorly as they do. The trick is to call the front desk of any hotel and see who answers. If they speak with a foreign accent call another hotel, you will save yourself alot of trouble. The people from India do not honor your reservation if more people show up before you do and they will not resolve any problems you have while in their home/hotel. I have seen the owners grandmothers who were well past sixty years old in San Antonio Howard Johnson and Motel 6 Arkansas cleaning the property around the motel. I had been booking at motel 6 for 10 years because the hotels were company owned but found out last year they are franchising when twice I stayed in 2 different motel 6 and they were friendly but extra vigilant of my coming and going and something was broken or didn't work in both rooms I stayed in. People from India get loans and grants to fund their franchise fees but anyway, why do American born people not franchise instead. Companies you are getting bad reputations from franchising to foreigners, they do...The cause of the bad service and dirty rooms is that this place like many others now are run by families from India and they live on the property and are trying to live dirt cheap. Since you are technically in their home you are expected to do as they say and live as poorly as they do. The trick is to call the front desk of any hotel and see who answers. If they speak with a foreign accent call another hotel, you will save yourself alot of trouble. The people from India do not honor your reservation if more people show up before you do and they will not resolve any problems you have while in their home/hotel. I have seen the owners grandmothers who were well past sixty years old in San Antonio Howard Johnson and Motel 6 Arkansas cleaning the property around the motel. I had been booking at motel 6 for 10 years because the hotels were company owned but found out last year they are franchising when twice I stayed in 2 different motel 6 and they were friendly but extra vigilant of my coming and going and something was broken or didn't work in both rooms I stayed in. People from India get loans and grants to fund their franchise fees but anyway, why do American born people not franchise instead. Companies you are getting bad reputations from franchising to foreigners, they do not follow the hotels promise of service and how can they when they come from countries where they learn to watch out for themselves first and step over people if you have to, to get ahead.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r279397866-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>279397866</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Super8-lonestar</t>
+  </si>
+  <si>
+    <t>The closest hotel to lonestar park and not a bad place to stay. Decor is outdated but ac works great! Very nice staff too!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r278272653-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>278272653</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There were dead bugs in the picture frames, the staff was very nice, but they room was hot when we walked in, it was ok but the dead bugs was not something we wanted to see when we came to visit for a wedding. </t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r277945862-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>277945862</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>Great for simple no frills</t>
+  </si>
+  <si>
+    <t>I found the room suitable and efficient for a no frills stay. I was disappointed by the breakfast. I guess I'm more of a bagels and cream cheese plus fresh fruit person. You might consider fewer high sugar pastries with the high rates of diabetes in our society. Otherwise, my stay was quite pleasant and I'll use them again if close to my travel destination.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r271873362-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>271873362</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>Affordable</t>
+  </si>
+  <si>
+    <t>this is our 4th time here, so convenient to the Verizon Theater in Grand Prairie for our concerts, it's average but never any complaints and good customer service</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r269626458-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>269626458</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r269570635-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>269570635</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>It wasn't the greatest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was decent until things started falling off the walls because screws were rusted and broken or wire hangers for the pictures were fully rusted and slammed onto my children's heads while they were sleeping. Then no matter where you went there were huge sewer roaches. The rooms, the halls, the ice machine was always covered in them or had them around it. </t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r264547199-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>264547199</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t>Very Nasty Accomodations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is old and dated. The carpet is old and moldy. The rooms were not particularly clean. The table and desk was in poor shape. It was so bad i was afraid to put anything on the table and sit in the chairs. This place needs to be torn down and/or severely remodeled. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r263138160-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>263138160</t>
+  </si>
+  <si>
+    <t>04/01/2015</t>
+  </si>
+  <si>
+    <t>Reconsider, you don't even get what you pay for.</t>
+  </si>
+  <si>
+    <t>Was in for a weekend wedding, figured it was close and cheap. It was terrible, first we asked for a non-smoking room only to find out at check in there was only smoking available! Then there was the stench of weed throughout the whole motel, apparently there was a rave concert the same weekend and every smoker and teenager was in this motel! Quality of motel and service was terrible do not recommend to anyone! Not worth the price!</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r258925834-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>258925834</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>Ok for a quick stay</t>
+  </si>
+  <si>
+    <t>The bed was comfortable. The hotel is a bit weathered. The breakfast wasn't worth bothering with (barely anything there and small seating area), so we left and paid for a hot breakfast elsewhere each morning. The tub didn't have a plug option, so you can only take showers. We chose the hotel for the location as we were seeing a concert just up the street.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r253499914-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>253499914</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>A Place to Sleep</t>
+  </si>
+  <si>
+    <t>My booking was not what I was going to get. I had a hard time with the front desk about it, but finally they made good on the reservation. However the next morning I could smell all the smoker's smoke coming into my room, so I was requested to be moved. I moved upstairs, the stairs are very steep and no railing on the wall (very hazardous). I didn't get a microwave due to this move, which was disappointing and the booking said breakfast, this was just a continental. Some staff were very friendly. It definitely was just a place to sleep. It needs major upgrades in the rooms. Old mattresses, old carpeting, old tubs, etc. It was decent for the price paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>My booking was not what I was going to get. I had a hard time with the front desk about it, but finally they made good on the reservation. However the next morning I could smell all the smoker's smoke coming into my room, so I was requested to be moved. I moved upstairs, the stairs are very steep and no railing on the wall (very hazardous). I didn't get a microwave due to this move, which was disappointing and the booking said breakfast, this was just a continental. Some staff were very friendly. It definitely was just a place to sleep. It needs major upgrades in the rooms. Old mattresses, old carpeting, old tubs, etc. It was decent for the price paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r250743861-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>250743861</t>
+  </si>
+  <si>
+    <t>01/24/2015</t>
+  </si>
+  <si>
+    <t>Well, it's good enough for the price</t>
+  </si>
+  <si>
+    <t>The other reviews were correct, the room smells, the breakfast is so so, the staff are friendly. Here is the breakdown: I got a non-smoking room but there was still a smell in the room so take some air freshener or spray your favorite perfume; beware of the toilet-it may not flush at first, there is a trick to that handle; the breakfast consist of cereal, pastry, and coffee; the staff are quick and willing to help you if there are any issues.The area is safe. No issues in the parking lot or any suspicious activity. Just be smart when traveling anywhere. The room had a microwave and refrigerator but I still rate this hotel between poor and average based on the above. The breakfast was free, parking was free, wifi was free, it was very quiet at night and I got a great deal on hotels.com so I am not upset at all. It was good enough for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>The other reviews were correct, the room smells, the breakfast is so so, the staff are friendly. Here is the breakdown: I got a non-smoking room but there was still a smell in the room so take some air freshener or spray your favorite perfume; beware of the toilet-it may not flush at first, there is a trick to that handle; the breakfast consist of cereal, pastry, and coffee; the staff are quick and willing to help you if there are any issues.The area is safe. No issues in the parking lot or any suspicious activity. Just be smart when traveling anywhere. The room had a microwave and refrigerator but I still rate this hotel between poor and average based on the above. The breakfast was free, parking was free, wifi was free, it was very quiet at night and I got a great deal on hotels.com so I am not upset at all. It was good enough for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r245780201-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>245780201</t>
+  </si>
+  <si>
+    <t>12/24/2014</t>
+  </si>
+  <si>
+    <t>Everything was great just one thing I wanted to be placed...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything was great just one thing I wanted to be placed in a non smoking area my room was non smoking but I could still smell the cigar smoke from the other rooms, other than that everything was excellent. </t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r237419503-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>237419503</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>good service good people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really enjoy staying hereit is close to Six Flags close to a wax museum restaurants and convenience stores are down the road customer service is really nice and helpful just wish that they would upgrade their Internetother than that I enjoyed my stay and sleep well   </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r237395806-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>237395806</t>
+  </si>
+  <si>
+    <t>Gatekeeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff was fantastic but my room was not so good.  one bed looking like it was sagging towards the headboard and the bathroom was not good.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r235687707-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>235687707</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>Very good budget hotel.</t>
+  </si>
+  <si>
+    <t>This hotel is in an excellent location. With easy access to I30 that can take us to Dallas or to Forth worth areas. Our room is big with 2 queen beds, a good size of frig, a 32 inch LED TV, and a good size of bathroom. The hotel also offers the continental breakfast with pastries and coffee, juices. We will definately return to this hotel in our future trips to Dallas. Highly recommend this hotel to my friends.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r221235574-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>221235574</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Average budget motel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The front desk clerk was friendly and helpful. Got to the room and it was clean.  The room smelled a bit musty. The whole place could use a little freshening up. But for the price it was what we expected. </t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r216498195-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>216498195</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>Surprise ending</t>
+  </si>
+  <si>
+    <t>No big surprises in our room until just before we got ready to leave and were packing up. My friend was in the restroom and reached for the spare roll of toilet paper and a hidden pair of nasty men's underwear fell out onto the floor. We were so shocked and stunned we really couldn't think of the best thing to do, but I photographed it and left it for housekeeping.  A first, Super 8, and I think I will check for other motels in the area.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r210641515-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>210641515</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Average hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient location. Clean room &amp; bed, but rooms are rather old and should be refurbished. Front desk was quick and effecient. We left before the breakfast was served. No problems and will stay here again. </t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r198465162-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>198465162</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Out dated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thin walls outdated rooms herd a couple doing the 2 person waltz all night n making other loud noises I drive a truck and ended up going to the parking lot and sleeping in my truck never again have a small dog they charged 30 bucks for her so it almost as much for her as it was for me </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r197882960-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>197882960</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>The shower worked fine the first night but the second night...</t>
+  </si>
+  <si>
+    <t>The shower worked fine the first night but the second night the pressure fell off and was sort of weak.Overall the stay was great, though.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r196292979-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>196292979</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was good, for the price. The staff was unbelievably RUDE! Ive never been to a hotel and had them CHARGE ME FOR USING THE WASH CLOTHES. It was incredibly rude. I will NEVER stay at a Super 8 again. I would be ashamed if I was the owner of this facility. Secondly GET STAFF THAT SPEAKS ENGLISH! THIS IS AMERICA! NOT MEXICO! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r189394033-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>189394033</t>
+  </si>
+  <si>
+    <t>01/02/2014</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r189234930-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>189234930</t>
+  </si>
+  <si>
+    <t>01/01/2014</t>
+  </si>
+  <si>
+    <t>worst stay ever !</t>
+  </si>
+  <si>
+    <t>Went to see Dallas Game at Arlington this was the only place with a room still available.I had read the bad reviuws but went a head and booked a room.We arrived at midnight .The rooms are super small asked for 2 beds and got a full size .This hotel is nothing but a place for partys.people all over partying room doors open.The people next to us must have had 15 people in there partying sounded like they were crashing beds and furniture ,called the desk at 3 in the morning and they said they would  take care of it at 5 it was still going on .I complained to manager when we checked out and he said hed give me a discount on my credit card but IT NEVER HAPPENED,,I was not surprised but i will never stay here again ,would have got more sleep staying in my car,MoreShow less</t>
+  </si>
+  <si>
+    <t>Went to see Dallas Game at Arlington this was the only place with a room still available.I had read the bad reviuws but went a head and booked a room.We arrived at midnight .The rooms are super small asked for 2 beds and got a full size .This hotel is nothing but a place for partys.people all over partying room doors open.The people next to us must have had 15 people in there partying sounded like they were crashing beds and furniture ,called the desk at 3 in the morning and they said they would  take care of it at 5 it was still going on .I complained to manager when we checked out and he said hed give me a discount on my credit card but IT NEVER HAPPENED,,I was not surprised but i will never stay here again ,would have got more sleep staying in my car,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r181888407-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>181888407</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>We have stayed at this location before, when in the area...</t>
+  </si>
+  <si>
+    <t>We have stayed at this location before, when in the area and will stay here again. The stairs to the second floor are a little difficult. An elevator or landing half way up the stairs would help.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r180344882-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>180344882</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>didnt honor price</t>
+  </si>
+  <si>
+    <t>ive stayed with you several times...im part of whyndam rewards. i made a reservation online before i headed out to your property..the online price was$49.50..when i arrived they said it was ballon fiesta week and that there was no way i was paying that price...the said the lowest price was $68....i was tired from traveling and did not want to argue just wanted to rest...am very disappointed that you did not honor the online price...would like to talk to someone about this...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r178642597-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>178642597</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>My stay was very good.The area was quite, the only problem...</t>
+  </si>
+  <si>
+    <t>My stay was very good.The area was quite, the only problem was the smell of smoke in the hall way. The bldg was being painted ,and the parking lot resurfaced.so some co-operation was expected.The lobby floor needed some work as you could see the pattern of the tiles under the laminate floor.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r176513043-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>176513043</t>
+  </si>
+  <si>
+    <t>09/09/2013</t>
+  </si>
+  <si>
+    <t>hotel needs upgrading of the facility in gerneral, inside...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hotel needs upgrading of the facility in gerneral, inside and out. the staff was very nice and friendly though! </t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r174585095-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>174585095</t>
+  </si>
+  <si>
+    <t>08/28/2013</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>do not waste your money on this location; rooms r stale smelling, poor lighting, dirty, plumbing suck; couldn't turn the water off in the shower; dingy looking,cheap towels and blankets on beds; beds appear to be sitting on the floor.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r168633486-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>168633486</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>No business center, I had something to print and had to find somewhere else to do so. The bathroom light sometimes would come on and sometimes would not. Uncomfortable bed.For $5 more per night, I found a holiday inn express a few exits up where I stayed for the next two nights of the weekend. Much nicer for the money.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r167978465-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>167978465</t>
+  </si>
+  <si>
+    <t>07/17/2013</t>
+  </si>
+  <si>
+    <t>my stay at super 8</t>
+  </si>
+  <si>
+    <t>everything is great as long as they get your reservation correct past two time have not been good I have had to stay in a smoking room because they messed up my reservation I have a breathing problem so that makes it difficult to stay in such a room</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r165386737-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>165386737</t>
+  </si>
+  <si>
+    <t>06/26/2013</t>
+  </si>
+  <si>
+    <t>awsome stay</t>
+  </si>
+  <si>
+    <t>I stay at this location every 2 weeks rooms are quiet and clean my only complaint is the old TV's they have the worst picture quality ever other than that my stays are great everytime</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r163479295-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>163479295</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>HEAT AND ROACHES!!!</t>
+  </si>
+  <si>
+    <t>I went here for a graduation on Friday. we were very pressed for time so we just turned to air on ad showered. We arrived back to our rooms some time later. The rooms were hot! I called the front desk and the clerk promised that he would be right up to check it out. This was at 11:30pm. Tired, we all fell asleep only to wake up in the middle of the night to hot rooms. The clerk NEVER showed up to our rooms!The air was on 60 yet the air conditioner never cooled the rooms. It was turning on and off. I went to the restroom and turned on the light and there were roaches everywhere! This was around 2 am. The clerk said the air conditioner was set on automatic in all of the rooms. The rooms were not cool at all. So what he was saying is that I am paying to stay here but they control the air or that 60 is the new 75?The entire hotel was hot!!There was a whole in my room floor that was hidden by carpet. I only found that out after my heel sIipped in it! I can only assume that there was a party next door to my room. My 6 year old was up putting cold towels on her face!!!! Then to add to the madness the morning clerk says that he got a note that there...I went here for a graduation on Friday. we were very pressed for time so we just turned to air on ad showered. We arrived back to our rooms some time later. The rooms were hot! I called the front desk and the clerk promised that he would be right up to check it out. This was at 11:30pm. Tired, we all fell asleep only to wake up in the middle of the night to hot rooms. The clerk NEVER showed up to our rooms!The air was on 60 yet the air conditioner never cooled the rooms. It was turning on and off. I went to the restroom and turned on the light and there were roaches everywhere! This was around 2 am. The clerk said the air conditioner was set on automatic in all of the rooms. The rooms were not cool at all. So what he was saying is that I am paying to stay here but they control the air or that 60 is the new 75?The entire hotel was hot!!There was a whole in my room floor that was hidden by carpet. I only found that out after my heel sIipped in it! I can only assume that there was a party next door to my room. My 6 year old was up putting cold towels on her face!!!! Then to add to the madness the morning clerk says that he got a note that there was only one roach in the tub! What! Are you serious? One roach is a roach too many!!!! Save your money and find somewhere else to stay!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I went here for a graduation on Friday. we were very pressed for time so we just turned to air on ad showered. We arrived back to our rooms some time later. The rooms were hot! I called the front desk and the clerk promised that he would be right up to check it out. This was at 11:30pm. Tired, we all fell asleep only to wake up in the middle of the night to hot rooms. The clerk NEVER showed up to our rooms!The air was on 60 yet the air conditioner never cooled the rooms. It was turning on and off. I went to the restroom and turned on the light and there were roaches everywhere! This was around 2 am. The clerk said the air conditioner was set on automatic in all of the rooms. The rooms were not cool at all. So what he was saying is that I am paying to stay here but they control the air or that 60 is the new 75?The entire hotel was hot!!There was a whole in my room floor that was hidden by carpet. I only found that out after my heel sIipped in it! I can only assume that there was a party next door to my room. My 6 year old was up putting cold towels on her face!!!! Then to add to the madness the morning clerk says that he got a note that there...I went here for a graduation on Friday. we were very pressed for time so we just turned to air on ad showered. We arrived back to our rooms some time later. The rooms were hot! I called the front desk and the clerk promised that he would be right up to check it out. This was at 11:30pm. Tired, we all fell asleep only to wake up in the middle of the night to hot rooms. The clerk NEVER showed up to our rooms!The air was on 60 yet the air conditioner never cooled the rooms. It was turning on and off. I went to the restroom and turned on the light and there were roaches everywhere! This was around 2 am. The clerk said the air conditioner was set on automatic in all of the rooms. The rooms were not cool at all. So what he was saying is that I am paying to stay here but they control the air or that 60 is the new 75?The entire hotel was hot!!There was a whole in my room floor that was hidden by carpet. I only found that out after my heel sIipped in it! I can only assume that there was a party next door to my room. My 6 year old was up putting cold towels on her face!!!! Then to add to the madness the morning clerk says that he got a note that there was only one roach in the tub! What! Are you serious? One roach is a roach too many!!!! Save your money and find somewhere else to stay!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r163203869-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>163203869</t>
+  </si>
+  <si>
+    <t>06/06/2013</t>
+  </si>
+  <si>
+    <t>Strange Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel was clean and everything worked fine. Staff was friendly; just a very strange town. Not much too do there. No pool so that was a bummer. The TV's speakers were blown so we had to watch it quietly. The bed was really broken in so my back was aching every morning until the shower. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r157429698-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>157429698</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>thanks for the stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it was a nice place to stay sorry i only had one day maybe next time i will stay in the area longer thanks again for having me  </t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r157319812-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>157319812</t>
+  </si>
+  <si>
+    <t>04/10/2013</t>
+  </si>
+  <si>
+    <t>Need Improvement</t>
+  </si>
+  <si>
+    <t>Rooms need improvement. Deodorize the rooms. For the cost we thought it could be better. I guess for the short notice and stay it was ok but not good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r156268913-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>156268913</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>Would have been great except for the neighbors.</t>
+  </si>
+  <si>
+    <t>The location &amp; staff were great.Friendly.Unfortunately the other guest were rude,missbehavin,loud mouth fools that should have stayed in a barn! Kids running up &amp; down the halls(11:30)pm,a lady slamming doors &amp; screaming at her companion at 3 am.Zero nights sleep after an 8hr drive.Not good at all.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r151274555-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>151274555</t>
+  </si>
+  <si>
+    <t>02/02/2013</t>
+  </si>
+  <si>
+    <t>Clean and quiet</t>
+  </si>
+  <si>
+    <t>My room at this hotel was clean and quiet.  It was a king size deluxe room and came with a frig and a microwave. I did not use the microwave but the frig worked fine.  It also had a iron and ironing board which was a plus.  The bathroom was clean.  The shower worked fine but had issues with the water temperature.  You either had a HOT shower or a cool one, there was nothing in between.   The breakfast area is very small.  One major concern about the hotel is a safety issue with the wiring of the lamps in the room.  When I went to find plugins for my laptop and cell phone charger I noticed that all the lamps had been rewired to make the cords longer and whoever did it did not do a very good job.  In fact one of the lamps in my room didn't work at first and I am pretty sure it was due to the wiring.  The staff was not overly friendly but not discourteous.  When I had a complaint about the light not working they came to my room immediately to try to fix it.There are not any resturants within walking distance of the hotel and besides fast food, there are no resturants close at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>My room at this hotel was clean and quiet.  It was a king size deluxe room and came with a frig and a microwave. I did not use the microwave but the frig worked fine.  It also had a iron and ironing board which was a plus.  The bathroom was clean.  The shower worked fine but had issues with the water temperature.  You either had a HOT shower or a cool one, there was nothing in between.   The breakfast area is very small.  One major concern about the hotel is a safety issue with the wiring of the lamps in the room.  When I went to find plugins for my laptop and cell phone charger I noticed that all the lamps had been rewired to make the cords longer and whoever did it did not do a very good job.  In fact one of the lamps in my room didn't work at first and I am pretty sure it was due to the wiring.  The staff was not overly friendly but not discourteous.  When I had a complaint about the light not working they came to my room immediately to try to fix it.There are not any resturants within walking distance of the hotel and besides fast food, there are no resturants close at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r149589887-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>149589887</t>
+  </si>
+  <si>
+    <t>01/13/2013</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>I booked this hotel online and noted that I was travelling with pet (dog). There was no charge when I checked in. The second day they wanted to charge for the dog. When I told them I would just check out they informed me they would charge for the second day and pet anyway. Very rude front desk</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r148635827-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>148635827</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Super 8 stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room and bathroom were clean. However, the bathroom had a slow drainage problem. In addition the associates were nice and friendly. I enjoyed my stay and would consider staying at the Super 8 in Grand Prairie again.  </t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r144489114-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>144489114</t>
+  </si>
+  <si>
+    <t>11/04/2012</t>
+  </si>
+  <si>
+    <t>Trip to Texas Tango</t>
+  </si>
+  <si>
+    <t>Our room was comfortable and clean, we might have used a microwave if we had had one in the room. We were pleased to see an iron mounted conveniently on a wall. We had a problem with our shower and it was promptly repaired. We would have loved to have had a waffle iron and batter available during breakfast. The coffee was okay, nothing special, but fresh and hot. The motel was located very conveniently near the Verizon Wireless Theater, where we attended the Texas Tango. It was a great show and Adam Lambert was magnificent.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r144403615-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>144403615</t>
+  </si>
+  <si>
+    <t>11/03/2012</t>
+  </si>
+  <si>
+    <t>Couldn't sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The only reason we stayed here was because it was so close to the Verizon Theater. The walls were paper thin. We heard doors slamming all night as well as our neighbors talking on their phone. We could hear them even coughing. The entire place reeked of cigarettes, and the whole floor was non-smoking. The bed was incredibly lumpy, worn out and I was itchy all night. The whole place looked like it was crumbling. There were hardly any outlets to charge phones or other electronics. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r144109937-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>144109937</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nice rooms and great service. The sign said vending and ice, Ice machine worked and clean, Vending was a soda machine that was sold out except bottled water. A chip or candy machine would have been nice.Bathtub had no stopper so bath was out of the question. Shower worked great.Take your own pillows. Theirs are like sleeping on a kleenex.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r121065812-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>121065812</t>
+  </si>
+  <si>
+    <t>11/26/2011</t>
+  </si>
+  <si>
+    <t>Worse Hotel Experience I've Ever Had</t>
+  </si>
+  <si>
+    <t>I spent two nights in the Super 8 in Grand Prairie over Thanksgiving Weekend 2011. It was, without a doubt, the worse hotel experience I've ever had.
+I was warned right off the bat when I checked in that the hotel staff had lost control of the hotel -- when I travel I take a stuffed animal with me for a little "piece of home" while on the road. I've been doing this for the last 15+ years without an issue. This time, however, right after I checked in and was making my way up the stairs to the second floor some kids saw me and started laughing at me for carrying a stuffed animal around. This was a sign of how the rest of the weekend was going to go.
+The rest of that night I had to deal with kids running up and down the hallways slamming doors, knocking on other people's doors and yelling at each other.
+The second night was much worse - I had to deal with kids roughhousing outside my window until early in the morning. Around 1am I got up and got dressed with the intention of going to find a WalMart or something that was open in order to go buy a box fan in order to drown out the noise, but decided instead to crank the A/C as low as it would go (in hopes that it wouldn't cut off) and...I spent two nights in the Super 8 in Grand Prairie over Thanksgiving Weekend 2011. It was, without a doubt, the worse hotel experience I've ever had.I was warned right off the bat when I checked in that the hotel staff had lost control of the hotel -- when I travel I take a stuffed animal with me for a little "piece of home" while on the road. I've been doing this for the last 15+ years without an issue. This time, however, right after I checked in and was making my way up the stairs to the second floor some kids saw me and started laughing at me for carrying a stuffed animal around. This was a sign of how the rest of the weekend was going to go.The rest of that night I had to deal with kids running up and down the hallways slamming doors, knocking on other people's doors and yelling at each other.The second night was much worse - I had to deal with kids roughhousing outside my window until early in the morning. Around 1am I got up and got dressed with the intention of going to find a WalMart or something that was open in order to go buy a box fan in order to drown out the noise, but decided instead to crank the A/C as low as it would go (in hopes that it wouldn't cut off) and bundle up in bed. Not the most environmentally sound decision I've made, after trying to sleep for 3+ hours of screaming kids, I just wanted to get some sleep.The hotel staff made zero attempt to get this under control. It was horrible -- even college dorms have "quiet hours" at night!I read a review of this place saying that the walls must be paper thin, and after staying here two nights, I have to agree -- and add to that the doors and the windows as well!I do not have high expectations for a hotel in this price range, outside of I want a clean and quiet room for sleeping in. The room was clean, but it was *NOT* quiet in any way, shape or form.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>I spent two nights in the Super 8 in Grand Prairie over Thanksgiving Weekend 2011. It was, without a doubt, the worse hotel experience I've ever had.
+I was warned right off the bat when I checked in that the hotel staff had lost control of the hotel -- when I travel I take a stuffed animal with me for a little "piece of home" while on the road. I've been doing this for the last 15+ years without an issue. This time, however, right after I checked in and was making my way up the stairs to the second floor some kids saw me and started laughing at me for carrying a stuffed animal around. This was a sign of how the rest of the weekend was going to go.
+The rest of that night I had to deal with kids running up and down the hallways slamming doors, knocking on other people's doors and yelling at each other.
+The second night was much worse - I had to deal with kids roughhousing outside my window until early in the morning. Around 1am I got up and got dressed with the intention of going to find a WalMart or something that was open in order to go buy a box fan in order to drown out the noise, but decided instead to crank the A/C as low as it would go (in hopes that it wouldn't cut off) and...I spent two nights in the Super 8 in Grand Prairie over Thanksgiving Weekend 2011. It was, without a doubt, the worse hotel experience I've ever had.I was warned right off the bat when I checked in that the hotel staff had lost control of the hotel -- when I travel I take a stuffed animal with me for a little "piece of home" while on the road. I've been doing this for the last 15+ years without an issue. This time, however, right after I checked in and was making my way up the stairs to the second floor some kids saw me and started laughing at me for carrying a stuffed animal around. This was a sign of how the rest of the weekend was going to go.The rest of that night I had to deal with kids running up and down the hallways slamming doors, knocking on other people's doors and yelling at each other.The second night was much worse - I had to deal with kids roughhousing outside my window until early in the morning. Around 1am I got up and got dressed with the intention of going to find a WalMart or something that was open in order to go buy a box fan in order to drown out the noise, but decided instead to crank the A/C as low as it would go (in hopes that it wouldn't cut off) and bundle up in bed. Not the most environmentally sound decision I've made, after trying to sleep for 3+ hours of screaming kids, I just wanted to get some sleep.The hotel staff made zero attempt to get this under control. It was horrible -- even college dorms have "quiet hours" at night!I read a review of this place saying that the walls must be paper thin, and after staying here two nights, I have to agree -- and add to that the doors and the windows as well!I do not have high expectations for a hotel in this price range, outside of I want a clean and quiet room for sleeping in. The room was clean, but it was *NOT* quiet in any way, shape or form.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r116831963-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>116831963</t>
+  </si>
+  <si>
+    <t>08/16/2011</t>
+  </si>
+  <si>
+    <t>A great thanks</t>
+  </si>
+  <si>
+    <t>My sister's stuff got all wet and we don't know how it did but the person at the front paid for the washing and drying which was so awsome!! Thanks</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r116499798-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>116499798</t>
+  </si>
+  <si>
+    <t>08/09/2011</t>
+  </si>
+  <si>
+    <t>Clean hotel and reasonably priced</t>
+  </si>
+  <si>
+    <t>Hotel was clean, reasonably priced and front desk personnel was friendly</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r45765973-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>45765973</t>
+  </si>
+  <si>
+    <t>10/03/2009</t>
+  </si>
+  <si>
+    <t>Seems like improvement from past reviews</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel a few years back, and would have to agree with some of the reviews below in regards to the quality.  However, recently I stayed at this hotel again, and it is definitely a vast improvement.  The rooms have since been updated, and the 2 rooms I had for my group were spotless.  Staff was friendly, and breakfast was exactly in line with what I have come to know from Super 8.  I would stay again.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r19589919-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>19589919</t>
+  </si>
+  <si>
+    <t>08/31/2008</t>
+  </si>
+  <si>
+    <t>It spoilt my holiday mood</t>
+  </si>
+  <si>
+    <t>I need a room in the mid-way of my long drive to Carlsbad.  Off from the highway, I found this hotel from my GPS.  My previous experience with Super8 has been good so Super8 is my first choice.  Unfortunately, when I asked for a room, the lady was very rude and said the rate is $79.  I said Super8 seldom charged so high and was told that the regualr rate is $64 and now the motel is nearly full so they have to raise the price.  I was shocked  by such a reply and requested to have the regular rate.  The answer was no so I left feeling really annoyed.  I ended up to have a very good room for just $42 tax included in Motel 6 - just their next door!  I wished I could find a channel to complain to Super 8 about their rudeness and unreasonable policy.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>I need a room in the mid-way of my long drive to Carlsbad.  Off from the highway, I found this hotel from my GPS.  My previous experience with Super8 has been good so Super8 is my first choice.  Unfortunately, when I asked for a room, the lady was very rude and said the rate is $79.  I said Super8 seldom charged so high and was told that the regualr rate is $64 and now the motel is nearly full so they have to raise the price.  I was shocked  by such a reply and requested to have the regular rate.  The answer was no so I left feeling really annoyed.  I ended up to have a very good room for just $42 tax included in Motel 6 - just their next door!  I wished I could find a channel to complain to Super 8 about their rudeness and unreasonable policy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r18965956-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>18965956</t>
+  </si>
+  <si>
+    <t>08/14/2008</t>
+  </si>
+  <si>
+    <t>Filthy room</t>
+  </si>
+  <si>
+    <t>We asked for a non smoking room, it wasn't. The rooms carpet is stained. It stinks so bad of smoke that it gives you a headache. The filter on the a/c unit was so dirty that my husband put it in the bathtub and  cleaned it. That helped a little with the overall smell of the room. We have to small dogs and we were told that this is what is available. I found a roach crawling overhead of the rack where you hang your clothes. It is a filthy room. Don't waster your time or money on this motel.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2565,7464 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" t="s">
+        <v>146</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>140</v>
+      </c>
+      <c r="O19" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" t="s">
+        <v>161</v>
+      </c>
+      <c r="L21" t="s">
+        <v>162</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>157</v>
+      </c>
+      <c r="O21" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" t="s">
+        <v>166</v>
+      </c>
+      <c r="L22" t="s">
+        <v>167</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>157</v>
+      </c>
+      <c r="O22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>170</v>
+      </c>
+      <c r="J23" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" t="s">
+        <v>173</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>174</v>
+      </c>
+      <c r="O23" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" t="s">
+        <v>177</v>
+      </c>
+      <c r="K24" t="s">
+        <v>178</v>
+      </c>
+      <c r="L24" t="s">
+        <v>179</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>174</v>
+      </c>
+      <c r="O24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>181</v>
+      </c>
+      <c r="J25" t="s">
+        <v>182</v>
+      </c>
+      <c r="K25" t="s">
+        <v>183</v>
+      </c>
+      <c r="L25" t="s">
+        <v>184</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>174</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>186</v>
+      </c>
+      <c r="J26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" t="s">
+        <v>189</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>190</v>
+      </c>
+      <c r="O26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>192</v>
+      </c>
+      <c r="J27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K27" t="s">
+        <v>194</v>
+      </c>
+      <c r="L27" t="s">
+        <v>195</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>190</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>197</v>
+      </c>
+      <c r="J28" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" t="s">
+        <v>199</v>
+      </c>
+      <c r="L28" t="s">
+        <v>200</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>201</v>
+      </c>
+      <c r="O28" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" t="s">
+        <v>206</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>207</v>
+      </c>
+      <c r="O29" t="s">
+        <v>84</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" t="s">
+        <v>211</v>
+      </c>
+      <c r="L30" t="s">
+        <v>212</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>213</v>
+      </c>
+      <c r="O30" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>215</v>
+      </c>
+      <c r="J31" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" t="s">
+        <v>217</v>
+      </c>
+      <c r="L31" t="s">
+        <v>218</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>213</v>
+      </c>
+      <c r="O31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>220</v>
+      </c>
+      <c r="J32" t="s">
+        <v>221</v>
+      </c>
+      <c r="K32" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" t="s">
+        <v>223</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>224</v>
+      </c>
+      <c r="O32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>225</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>226</v>
+      </c>
+      <c r="J33" t="s">
+        <v>227</v>
+      </c>
+      <c r="K33" t="s">
+        <v>228</v>
+      </c>
+      <c r="L33" t="s">
+        <v>229</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>224</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>231</v>
+      </c>
+      <c r="J34" t="s">
+        <v>232</v>
+      </c>
+      <c r="K34" t="s">
+        <v>233</v>
+      </c>
+      <c r="L34" t="s">
+        <v>234</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>224</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>236</v>
+      </c>
+      <c r="J35" t="s">
+        <v>237</v>
+      </c>
+      <c r="K35" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" t="s">
+        <v>239</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>240</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>242</v>
+      </c>
+      <c r="J36" t="s">
+        <v>243</v>
+      </c>
+      <c r="K36" t="s">
+        <v>244</v>
+      </c>
+      <c r="L36" t="s">
+        <v>245</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>240</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>246</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>247</v>
+      </c>
+      <c r="J37" t="s">
+        <v>248</v>
+      </c>
+      <c r="K37" t="s">
+        <v>249</v>
+      </c>
+      <c r="L37" t="s">
+        <v>250</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>251</v>
+      </c>
+      <c r="O37" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" t="s">
+        <v>254</v>
+      </c>
+      <c r="K38" t="s">
+        <v>255</v>
+      </c>
+      <c r="L38" t="s">
+        <v>256</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>251</v>
+      </c>
+      <c r="O38" t="s">
+        <v>65</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>258</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>259</v>
+      </c>
+      <c r="J39" t="s">
+        <v>260</v>
+      </c>
+      <c r="K39" t="s">
+        <v>261</v>
+      </c>
+      <c r="L39" t="s">
+        <v>262</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>251</v>
+      </c>
+      <c r="O39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>263</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>264</v>
+      </c>
+      <c r="J40" t="s">
+        <v>265</v>
+      </c>
+      <c r="K40" t="s">
+        <v>266</v>
+      </c>
+      <c r="L40" t="s">
+        <v>267</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>268</v>
+      </c>
+      <c r="O40" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>269</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>270</v>
+      </c>
+      <c r="J41" t="s">
+        <v>271</v>
+      </c>
+      <c r="K41" t="s">
+        <v>272</v>
+      </c>
+      <c r="L41" t="s">
+        <v>273</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>274</v>
+      </c>
+      <c r="O41" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>275</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>276</v>
+      </c>
+      <c r="J42" t="s">
+        <v>277</v>
+      </c>
+      <c r="K42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L42" t="s">
+        <v>279</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>274</v>
+      </c>
+      <c r="O42" t="s">
+        <v>65</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>280</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>281</v>
+      </c>
+      <c r="J43" t="s">
+        <v>277</v>
+      </c>
+      <c r="K43" t="s">
+        <v>282</v>
+      </c>
+      <c r="L43" t="s">
+        <v>283</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>274</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>284</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>285</v>
+      </c>
+      <c r="J44" t="s">
+        <v>286</v>
+      </c>
+      <c r="K44" t="s">
+        <v>287</v>
+      </c>
+      <c r="L44" t="s">
+        <v>288</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>274</v>
+      </c>
+      <c r="O44" t="s">
+        <v>65</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>289</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>290</v>
+      </c>
+      <c r="J45" t="s">
+        <v>291</v>
+      </c>
+      <c r="K45" t="s">
+        <v>292</v>
+      </c>
+      <c r="L45" t="s">
+        <v>293</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>294</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>296</v>
+      </c>
+      <c r="J46" t="s">
+        <v>297</v>
+      </c>
+      <c r="K46" t="s">
+        <v>298</v>
+      </c>
+      <c r="L46" t="s">
+        <v>299</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>294</v>
+      </c>
+      <c r="O46" t="s">
+        <v>84</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>301</v>
+      </c>
+      <c r="J47" t="s">
+        <v>302</v>
+      </c>
+      <c r="K47" t="s">
+        <v>303</v>
+      </c>
+      <c r="L47" t="s">
+        <v>304</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>305</v>
+      </c>
+      <c r="O47" t="s">
+        <v>84</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>306</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>307</v>
+      </c>
+      <c r="J48" t="s">
+        <v>308</v>
+      </c>
+      <c r="K48" t="s">
+        <v>309</v>
+      </c>
+      <c r="L48" t="s">
+        <v>310</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>311</v>
+      </c>
+      <c r="O48" t="s">
+        <v>84</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>312</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>313</v>
+      </c>
+      <c r="J49" t="s">
+        <v>314</v>
+      </c>
+      <c r="K49" t="s">
+        <v>315</v>
+      </c>
+      <c r="L49" t="s">
+        <v>316</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>311</v>
+      </c>
+      <c r="O49" t="s">
+        <v>65</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>318</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>319</v>
+      </c>
+      <c r="J50" t="s">
+        <v>320</v>
+      </c>
+      <c r="K50" t="s">
+        <v>321</v>
+      </c>
+      <c r="L50" t="s">
+        <v>322</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>311</v>
+      </c>
+      <c r="O50" t="s">
+        <v>78</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>324</v>
+      </c>
+      <c r="J51" t="s">
+        <v>325</v>
+      </c>
+      <c r="K51" t="s">
+        <v>326</v>
+      </c>
+      <c r="L51" t="s">
+        <v>327</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>311</v>
+      </c>
+      <c r="O51" t="s">
+        <v>78</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>329</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>330</v>
+      </c>
+      <c r="J52" t="s">
+        <v>325</v>
+      </c>
+      <c r="K52" t="s">
+        <v>331</v>
+      </c>
+      <c r="L52" t="s">
+        <v>332</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>333</v>
+      </c>
+      <c r="O52" t="s">
+        <v>84</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>334</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>335</v>
+      </c>
+      <c r="J53" t="s">
+        <v>336</v>
+      </c>
+      <c r="K53" t="s">
+        <v>337</v>
+      </c>
+      <c r="L53" t="s">
+        <v>338</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>333</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>339</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>340</v>
+      </c>
+      <c r="J54" t="s">
+        <v>341</v>
+      </c>
+      <c r="K54" t="s">
+        <v>337</v>
+      </c>
+      <c r="L54" t="s">
+        <v>342</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>333</v>
+      </c>
+      <c r="O54" t="s">
+        <v>65</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>344</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>345</v>
+      </c>
+      <c r="J55" t="s">
+        <v>346</v>
+      </c>
+      <c r="K55" t="s">
+        <v>347</v>
+      </c>
+      <c r="L55" t="s">
+        <v>348</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>349</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>350</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>351</v>
+      </c>
+      <c r="J56" t="s">
+        <v>352</v>
+      </c>
+      <c r="K56" t="s">
+        <v>353</v>
+      </c>
+      <c r="L56" t="s">
+        <v>354</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>355</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>356</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>357</v>
+      </c>
+      <c r="J57" t="s">
+        <v>358</v>
+      </c>
+      <c r="K57" t="s">
+        <v>359</v>
+      </c>
+      <c r="L57" t="s">
+        <v>360</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>355</v>
+      </c>
+      <c r="O57" t="s">
+        <v>78</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>361</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>362</v>
+      </c>
+      <c r="J58" t="s">
+        <v>363</v>
+      </c>
+      <c r="K58" t="s">
+        <v>364</v>
+      </c>
+      <c r="L58" t="s">
+        <v>365</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>355</v>
+      </c>
+      <c r="O58" t="s">
+        <v>65</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>366</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>367</v>
+      </c>
+      <c r="J59" t="s">
+        <v>368</v>
+      </c>
+      <c r="K59" t="s">
+        <v>369</v>
+      </c>
+      <c r="L59" t="s">
+        <v>370</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>371</v>
+      </c>
+      <c r="O59" t="s">
+        <v>65</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>372</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>373</v>
+      </c>
+      <c r="J60" t="s">
+        <v>374</v>
+      </c>
+      <c r="K60" t="s">
+        <v>375</v>
+      </c>
+      <c r="L60" t="s">
+        <v>376</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>371</v>
+      </c>
+      <c r="O60" t="s">
+        <v>78</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>377</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>378</v>
+      </c>
+      <c r="J61" t="s">
+        <v>374</v>
+      </c>
+      <c r="K61" t="s">
+        <v>379</v>
+      </c>
+      <c r="L61" t="s">
+        <v>380</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>371</v>
+      </c>
+      <c r="O61" t="s">
+        <v>65</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>381</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>382</v>
+      </c>
+      <c r="J62" t="s">
+        <v>383</v>
+      </c>
+      <c r="K62" t="s">
+        <v>384</v>
+      </c>
+      <c r="L62" t="s">
+        <v>385</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>386</v>
+      </c>
+      <c r="O62" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>387</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>388</v>
+      </c>
+      <c r="J63" t="s">
+        <v>389</v>
+      </c>
+      <c r="K63" t="s">
+        <v>390</v>
+      </c>
+      <c r="L63" t="s">
+        <v>391</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>386</v>
+      </c>
+      <c r="O63" t="s">
+        <v>65</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>392</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>393</v>
+      </c>
+      <c r="J64" t="s">
+        <v>394</v>
+      </c>
+      <c r="K64" t="s">
+        <v>395</v>
+      </c>
+      <c r="L64" t="s">
+        <v>396</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>386</v>
+      </c>
+      <c r="O64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>397</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>398</v>
+      </c>
+      <c r="J65" t="s">
+        <v>399</v>
+      </c>
+      <c r="K65" t="s">
+        <v>400</v>
+      </c>
+      <c r="L65" t="s">
+        <v>401</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>386</v>
+      </c>
+      <c r="O65" t="s">
+        <v>65</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>402</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>403</v>
+      </c>
+      <c r="J66" t="s">
+        <v>404</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>386</v>
+      </c>
+      <c r="O66" t="s">
+        <v>65</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>405</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>406</v>
+      </c>
+      <c r="J67" t="s">
+        <v>407</v>
+      </c>
+      <c r="K67" t="s">
+        <v>408</v>
+      </c>
+      <c r="L67" t="s">
+        <v>409</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>386</v>
+      </c>
+      <c r="O67" t="s">
+        <v>65</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>411</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>412</v>
+      </c>
+      <c r="J68" t="s">
+        <v>413</v>
+      </c>
+      <c r="K68" t="s">
+        <v>414</v>
+      </c>
+      <c r="L68" t="s">
+        <v>415</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>416</v>
+      </c>
+      <c r="O68" t="s">
+        <v>78</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>417</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>418</v>
+      </c>
+      <c r="J69" t="s">
+        <v>419</v>
+      </c>
+      <c r="K69" t="s">
+        <v>199</v>
+      </c>
+      <c r="L69" t="s">
+        <v>420</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>421</v>
+      </c>
+      <c r="O69" t="s">
+        <v>78</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>422</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>423</v>
+      </c>
+      <c r="J70" t="s">
+        <v>424</v>
+      </c>
+      <c r="K70" t="s">
+        <v>425</v>
+      </c>
+      <c r="L70" t="s">
+        <v>426</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>421</v>
+      </c>
+      <c r="O70" t="s">
+        <v>84</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>427</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>428</v>
+      </c>
+      <c r="J71" t="s">
+        <v>429</v>
+      </c>
+      <c r="K71" t="s">
+        <v>430</v>
+      </c>
+      <c r="L71" t="s">
+        <v>431</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>421</v>
+      </c>
+      <c r="O71" t="s">
+        <v>78</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>432</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>433</v>
+      </c>
+      <c r="J72" t="s">
+        <v>434</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>421</v>
+      </c>
+      <c r="O72" t="s">
+        <v>84</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>435</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>436</v>
+      </c>
+      <c r="J73" t="s">
+        <v>437</v>
+      </c>
+      <c r="K73" t="s">
+        <v>438</v>
+      </c>
+      <c r="L73" t="s">
+        <v>439</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>440</v>
+      </c>
+      <c r="O73" t="s">
+        <v>65</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>441</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>442</v>
+      </c>
+      <c r="J74" t="s">
+        <v>443</v>
+      </c>
+      <c r="K74" t="s">
+        <v>444</v>
+      </c>
+      <c r="L74" t="s">
+        <v>445</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>440</v>
+      </c>
+      <c r="O74" t="s">
+        <v>84</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>446</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>447</v>
+      </c>
+      <c r="J75" t="s">
+        <v>448</v>
+      </c>
+      <c r="K75" t="s">
+        <v>449</v>
+      </c>
+      <c r="L75" t="s">
+        <v>450</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>451</v>
+      </c>
+      <c r="O75" t="s">
+        <v>65</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>452</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>453</v>
+      </c>
+      <c r="J76" t="s">
+        <v>454</v>
+      </c>
+      <c r="K76" t="s">
+        <v>455</v>
+      </c>
+      <c r="L76" t="s">
+        <v>456</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>451</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>457</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>458</v>
+      </c>
+      <c r="J77" t="s">
+        <v>459</v>
+      </c>
+      <c r="K77" t="s">
+        <v>460</v>
+      </c>
+      <c r="L77" t="s">
+        <v>461</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>462</v>
+      </c>
+      <c r="O77" t="s">
+        <v>65</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>464</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>465</v>
+      </c>
+      <c r="J78" t="s">
+        <v>466</v>
+      </c>
+      <c r="K78" t="s">
+        <v>467</v>
+      </c>
+      <c r="L78" t="s">
+        <v>468</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>469</v>
+      </c>
+      <c r="O78" t="s">
+        <v>84</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>471</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>472</v>
+      </c>
+      <c r="J79" t="s">
+        <v>473</v>
+      </c>
+      <c r="K79" t="s">
+        <v>474</v>
+      </c>
+      <c r="L79" t="s">
+        <v>475</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>476</v>
+      </c>
+      <c r="O79" t="s">
+        <v>65</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>477</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>478</v>
+      </c>
+      <c r="J80" t="s">
+        <v>479</v>
+      </c>
+      <c r="K80" t="s">
+        <v>480</v>
+      </c>
+      <c r="L80" t="s">
+        <v>481</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>482</v>
+      </c>
+      <c r="O80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>483</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>484</v>
+      </c>
+      <c r="J81" t="s">
+        <v>479</v>
+      </c>
+      <c r="K81" t="s">
+        <v>485</v>
+      </c>
+      <c r="L81" t="s">
+        <v>486</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>482</v>
+      </c>
+      <c r="O81" t="s">
+        <v>84</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>488</v>
+      </c>
+      <c r="J82" t="s">
+        <v>489</v>
+      </c>
+      <c r="K82" t="s">
+        <v>490</v>
+      </c>
+      <c r="L82" t="s">
+        <v>491</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>482</v>
+      </c>
+      <c r="O82" t="s">
+        <v>78</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>492</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>493</v>
+      </c>
+      <c r="J83" t="s">
+        <v>494</v>
+      </c>
+      <c r="K83" t="s">
+        <v>495</v>
+      </c>
+      <c r="L83" t="s">
+        <v>496</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>497</v>
+      </c>
+      <c r="O83" t="s">
+        <v>78</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>498</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>499</v>
+      </c>
+      <c r="J84" t="s">
+        <v>500</v>
+      </c>
+      <c r="K84" t="s">
+        <v>501</v>
+      </c>
+      <c r="L84" t="s">
+        <v>502</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>503</v>
+      </c>
+      <c r="O84" t="s">
+        <v>78</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>504</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>505</v>
+      </c>
+      <c r="J85" t="s">
+        <v>506</v>
+      </c>
+      <c r="K85" t="s">
+        <v>507</v>
+      </c>
+      <c r="L85" t="s">
+        <v>508</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>509</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>510</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>511</v>
+      </c>
+      <c r="J86" t="s">
+        <v>512</v>
+      </c>
+      <c r="K86" t="s">
+        <v>513</v>
+      </c>
+      <c r="L86" t="s">
+        <v>514</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>515</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>516</v>
+      </c>
+      <c r="J87" t="s">
+        <v>517</v>
+      </c>
+      <c r="K87" t="s">
+        <v>518</v>
+      </c>
+      <c r="L87" t="s">
+        <v>519</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>520</v>
+      </c>
+      <c r="O87" t="s">
+        <v>78</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>521</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>522</v>
+      </c>
+      <c r="J88" t="s">
+        <v>523</v>
+      </c>
+      <c r="K88" t="s">
+        <v>524</v>
+      </c>
+      <c r="L88" t="s">
+        <v>525</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>520</v>
+      </c>
+      <c r="O88" t="s">
+        <v>84</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>526</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>527</v>
+      </c>
+      <c r="J89" t="s">
+        <v>528</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s"/>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>529</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>530</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>531</v>
+      </c>
+      <c r="J90" t="s">
+        <v>532</v>
+      </c>
+      <c r="K90" t="s">
+        <v>533</v>
+      </c>
+      <c r="L90" t="s">
+        <v>534</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>529</v>
+      </c>
+      <c r="O90" t="s">
+        <v>65</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>536</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>537</v>
+      </c>
+      <c r="J91" t="s">
+        <v>538</v>
+      </c>
+      <c r="K91" t="s">
+        <v>539</v>
+      </c>
+      <c r="L91" t="s">
+        <v>540</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>541</v>
+      </c>
+      <c r="O91" t="s">
+        <v>78</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>542</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>543</v>
+      </c>
+      <c r="J92" t="s">
+        <v>544</v>
+      </c>
+      <c r="K92" t="s">
+        <v>545</v>
+      </c>
+      <c r="L92" t="s">
+        <v>546</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>541</v>
+      </c>
+      <c r="O92" t="s">
+        <v>59</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>547</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>548</v>
+      </c>
+      <c r="J93" t="s">
+        <v>549</v>
+      </c>
+      <c r="K93" t="s">
+        <v>550</v>
+      </c>
+      <c r="L93" t="s">
+        <v>551</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>552</v>
+      </c>
+      <c r="O93" t="s">
+        <v>84</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>553</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>554</v>
+      </c>
+      <c r="J94" t="s">
+        <v>555</v>
+      </c>
+      <c r="K94" t="s">
+        <v>556</v>
+      </c>
+      <c r="L94" t="s">
+        <v>557</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>558</v>
+      </c>
+      <c r="O94" t="s">
+        <v>65</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>559</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>560</v>
+      </c>
+      <c r="J95" t="s">
+        <v>561</v>
+      </c>
+      <c r="K95" t="s">
+        <v>562</v>
+      </c>
+      <c r="L95" t="s">
+        <v>563</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>558</v>
+      </c>
+      <c r="O95" t="s">
+        <v>65</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>564</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>565</v>
+      </c>
+      <c r="J96" t="s">
+        <v>566</v>
+      </c>
+      <c r="K96" t="s">
+        <v>567</v>
+      </c>
+      <c r="L96" t="s">
+        <v>568</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s">
+        <v>569</v>
+      </c>
+      <c r="O96" t="s">
+        <v>84</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>570</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>571</v>
+      </c>
+      <c r="J97" t="s">
+        <v>572</v>
+      </c>
+      <c r="K97" t="s">
+        <v>573</v>
+      </c>
+      <c r="L97" t="s">
+        <v>574</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>569</v>
+      </c>
+      <c r="O97" t="s">
+        <v>65</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>575</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>576</v>
+      </c>
+      <c r="J98" t="s">
+        <v>577</v>
+      </c>
+      <c r="K98" t="s">
+        <v>578</v>
+      </c>
+      <c r="L98" t="s">
+        <v>579</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>580</v>
+      </c>
+      <c r="O98" t="s">
+        <v>84</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>581</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>582</v>
+      </c>
+      <c r="J99" t="s">
+        <v>583</v>
+      </c>
+      <c r="K99" t="s">
+        <v>584</v>
+      </c>
+      <c r="L99" t="s">
+        <v>585</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>580</v>
+      </c>
+      <c r="O99" t="s">
+        <v>65</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>587</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>588</v>
+      </c>
+      <c r="J100" t="s">
+        <v>589</v>
+      </c>
+      <c r="K100" t="s">
+        <v>590</v>
+      </c>
+      <c r="L100" t="s">
+        <v>591</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>580</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>592</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>593</v>
+      </c>
+      <c r="J101" t="s">
+        <v>594</v>
+      </c>
+      <c r="K101" t="s">
+        <v>595</v>
+      </c>
+      <c r="L101" t="s">
+        <v>596</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>597</v>
+      </c>
+      <c r="O101" t="s">
+        <v>84</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>598</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>599</v>
+      </c>
+      <c r="J102" t="s">
+        <v>600</v>
+      </c>
+      <c r="K102" t="s">
+        <v>601</v>
+      </c>
+      <c r="L102" t="s">
+        <v>602</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>597</v>
+      </c>
+      <c r="O102" t="s">
+        <v>65</v>
+      </c>
+      <c r="P102" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>603</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>604</v>
+      </c>
+      <c r="J103" t="s">
+        <v>605</v>
+      </c>
+      <c r="K103" t="s">
+        <v>606</v>
+      </c>
+      <c r="L103" t="s">
+        <v>607</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>608</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>609</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>610</v>
+      </c>
+      <c r="J104" t="s">
+        <v>611</v>
+      </c>
+      <c r="K104" t="s">
+        <v>612</v>
+      </c>
+      <c r="L104" t="s">
+        <v>613</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>614</v>
+      </c>
+      <c r="O104" t="s">
+        <v>84</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>616</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>617</v>
+      </c>
+      <c r="J105" t="s">
+        <v>618</v>
+      </c>
+      <c r="K105" t="s">
+        <v>619</v>
+      </c>
+      <c r="L105" t="s">
+        <v>620</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
+        <v>614</v>
+      </c>
+      <c r="O105" t="s">
+        <v>84</v>
+      </c>
+      <c r="P105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>2</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>621</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>622</v>
+      </c>
+      <c r="J106" t="s">
+        <v>623</v>
+      </c>
+      <c r="K106" t="s">
+        <v>624</v>
+      </c>
+      <c r="L106" t="s">
+        <v>625</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>626</v>
+      </c>
+      <c r="O106" t="s">
+        <v>78</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>627</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>628</v>
+      </c>
+      <c r="J107" t="s">
+        <v>629</v>
+      </c>
+      <c r="K107" t="s">
+        <v>630</v>
+      </c>
+      <c r="L107" t="s">
+        <v>631</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>632</v>
+      </c>
+      <c r="O107" t="s">
+        <v>78</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>4</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>633</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>634</v>
+      </c>
+      <c r="J108" t="s">
+        <v>635</v>
+      </c>
+      <c r="K108" t="s">
+        <v>636</v>
+      </c>
+      <c r="L108" t="s">
+        <v>637</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s">
+        <v>632</v>
+      </c>
+      <c r="O108" t="s">
+        <v>78</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>2</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>638</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>639</v>
+      </c>
+      <c r="J109" t="s">
+        <v>640</v>
+      </c>
+      <c r="K109" t="s">
+        <v>641</v>
+      </c>
+      <c r="L109" t="s">
+        <v>642</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>632</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>643</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>644</v>
+      </c>
+      <c r="J110" t="s">
+        <v>645</v>
+      </c>
+      <c r="K110" t="s">
+        <v>646</v>
+      </c>
+      <c r="L110" t="s">
+        <v>647</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s">
+        <v>648</v>
+      </c>
+      <c r="O110" t="s">
+        <v>59</v>
+      </c>
+      <c r="P110" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>3</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>1</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>650</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>651</v>
+      </c>
+      <c r="J111" t="s">
+        <v>652</v>
+      </c>
+      <c r="K111" t="s">
+        <v>653</v>
+      </c>
+      <c r="L111" t="s">
+        <v>654</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s"/>
+      <c r="O111" t="s"/>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>655</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>656</v>
+      </c>
+      <c r="J112" t="s">
+        <v>657</v>
+      </c>
+      <c r="K112" t="s">
+        <v>658</v>
+      </c>
+      <c r="L112" t="s">
+        <v>659</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>660</v>
+      </c>
+      <c r="O112" t="s">
+        <v>53</v>
+      </c>
+      <c r="P112" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>661</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>662</v>
+      </c>
+      <c r="J113" t="s">
+        <v>663</v>
+      </c>
+      <c r="K113" t="s">
+        <v>664</v>
+      </c>
+      <c r="L113" t="s">
+        <v>665</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4</v>
+      </c>
+      <c r="N113" t="s">
+        <v>666</v>
+      </c>
+      <c r="O113" t="s">
+        <v>53</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>4</v>
+      </c>
+      <c r="R113" t="n">
+        <v>4</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>667</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>668</v>
+      </c>
+      <c r="J114" t="s">
+        <v>669</v>
+      </c>
+      <c r="K114" t="s">
+        <v>670</v>
+      </c>
+      <c r="L114" t="s">
+        <v>671</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="s">
+        <v>672</v>
+      </c>
+      <c r="O114" t="s">
+        <v>53</v>
+      </c>
+      <c r="P114" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="n">
+        <v>3</v>
+      </c>
+      <c r="S114" t="s"/>
+      <c r="T114" t="s"/>
+      <c r="U114" t="s"/>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>7469</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>674</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>675</v>
+      </c>
+      <c r="J115" t="s">
+        <v>676</v>
+      </c>
+      <c r="K115" t="s">
+        <v>677</v>
+      </c>
+      <c r="L115" t="s">
+        <v>678</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="s">
+        <v>672</v>
+      </c>
+      <c r="O115" t="s">
+        <v>84</v>
+      </c>
+      <c r="P115" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>1</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>1</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>1</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>678</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_729.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_729.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="790">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>urbinabills</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>pirahmd</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r572746757-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
@@ -207,6 +213,9 @@
 In addition, I had to go to the Verizon Theater Concert that night. There was a sign that said $15/roundtrip to the concert. However, I decided to uber on the way there. On the way back, it was hard to find uber, so I called the ride that the hotel...I travel quite frequently, and this was by far one of the worst hotel experience. I paid $179/night. The staff at the front desk was far from friendly. When asked where I can get food, the response was "you can order pizza"Hence, I bought the instant cup of noodles at the front desk. When I asked for utensil/fork, the reply from the front desk staff was "it should be in the corner right there or in your room". Went to my room, no utensil to be found.Later that night, after my concert, I attempt to ask for a fork before returning to my room. The front desk staff was quite grumpy and pointed in the same direction. I proceed to tell her that I could not find a fork earlier in the day, and her response was "it should be there".  I thought that they may have restock the utensils, but upon going to the corner 'where she pointed", still no fork to be found. By that time, I was quite annoyed and upset. For $179/night, please pretend that you like your job and get me a fork.In addition, I had to go to the Verizon Theater Concert that night. There was a sign that said $15/roundtrip to the concert. However, I decided to uber on the way there. On the way back, it was hard to find uber, so I called the ride that the hotel was offering. The driver was quite annoyed at me and said "why didn't you do the roundtrip with me? why did you take uber in the first place?".  I paid $15 for the trip, regardless that it was one way. And there was only the two of us in the van. Hence, if I had known, I would have just stayed at Super 8. Worst hotel experience ever!More</t>
   </si>
   <si>
+    <t>pgully168695</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r570914373-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>jessica08boi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r561570066-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>kkwhitton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r557368462-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>emeteriop2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r555180211-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>tea_monet16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r541475956-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>R7990ATmichaelk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r539729908-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t xml:space="preserve">The only problem I had was the pillows were not big enough, but everything else for the weekend was great. </t>
   </si>
   <si>
+    <t>rachelwN1974LK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r539152824-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -327,6 +354,9 @@
     <t>The people here were able to accommodate me and the group I was traveling with on a very short notice. However, once I was in the room, the bathroom looked like it needed a new coat of paint as there was splotches of paint in the bathroom area.</t>
   </si>
   <si>
+    <t>Scott M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r535473600-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -345,6 +375,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>nataliebravo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r532378895-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -360,6 +393,9 @@
     <t>The toilet would not flush properly, management would not help with it told us to stand there and hold the handle down.  Guest woke us up at 2:40 am yelling and screaming and arguing for over an hour.  Place smelled, no elevator.</t>
   </si>
   <si>
+    <t>johntW8011UK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r531301024-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -378,6 +414,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Justin S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r527295739-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -396,6 +435,9 @@
     <t>My dad and I spent a Friday and Saturday night here.  It was just a place to sleep and shower.  The WiFi was weak, but we were at the very end of the hall.  My room had a hole in the wall by the window; it looked like someone had kicked it.  It didn't bother me, but it looked bad.  The shower water nozzles were loose and janky. The first splash of water that came out looked rusty.  On the plus side, it wasn't too crowded.  It was easy to get to and from I30 although there wasn't much in the immediate area.  The breakfast seemed small and adequate, but I just had coffee. The guy working the counter seemed friendly and helpful. It was not the best but not the worst either.More</t>
   </si>
   <si>
+    <t>javiervG2098XO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r524909550-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -411,6 +453,9 @@
     <t>We had a good stay at the Super 8 in Grand Prairie, TX. The staff was helpful and friendly. The room was clean as was the bathroom. The internet was difficult to log on to, however once in, all was smooth. I would recommend this hotel !!</t>
   </si>
   <si>
+    <t>840artt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r524478061-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -429,6 +474,9 @@
     <t>I have stayed at crack houses nicer than this place. Due to limited rooms in the area we thought a Super 8 can't be that bad. We were sadly mistaken. We checked in and asked for a roll a way bed that we reserved all 3 were already spoken for. We walk in room and it smells like a haunted house that was underwater. Black mold lined the walls. Water damage was everywhere. Remote didn't work and lights would not come on. I will never stay at a Super 8 again. I may never stay at a Marriott for that matter. This was hands down the worst experience in our lives and we travel quite frequently.More</t>
   </si>
   <si>
+    <t>911vinceb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r508782138-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -450,6 +498,9 @@
     <t>When I first got to the hotel to check in I had ask for a 1 bedroom king and the only thing they had left was a 2 bedroom handicapped room I was going to try and get a room at another hotel but because of it being the weekend everything was to expensive. Then later I had to go to Motel 6 next door to get ice because there ice machine was broken, they don't have a pool at all, &amp; then after all of that the next morning at breakfast there was no coffee the orange juice and apple juice was out there was no milk just everything was out and had to wait on someone from the front desk to refresh everything. It was just a bad stay and the only positive part of the breakfast that morning was Kylie. She went out of her way to make sure we had everything we needed. Also the smelled like mold and I had to lite candles to get rid of the smell. More</t>
   </si>
   <si>
+    <t>577monicao</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r508120409-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -465,6 +516,9 @@
     <t xml:space="preserve">the room smelled, the refrigerator was dirty, the ac wasn't working properly, and the breakfast was horrible, there was only cereal and waffles. </t>
   </si>
   <si>
+    <t>ernestm137</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r504943056-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -480,6 +534,9 @@
     <t xml:space="preserve">The only thing.i did not like at this super 8 was the tiny pillows and the hard Bed. The staff, location, and price were ok. </t>
   </si>
   <si>
+    <t>George N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r494102930-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -498,6 +555,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>C4633QMdaniele</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r491000809-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -513,6 +573,9 @@
     <t xml:space="preserve">good location, close to our destination. Service was acceptable, but not really friendly. Not satisfied at all with breakfast, they served cereal, instant oatmeal. toast and other quick foods. the pillows were flat and beds were hard and didn't sleep very well. we noticed the back door didn't lock and others could get in to hallway without a card. Overall was average -poor and will not stay there again. </t>
   </si>
   <si>
+    <t>bryane633</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r489724483-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -531,6 +594,9 @@
     <t>The best thing about the motel was that the shower had extremely hot water which is great for a shower. I was disappointed with the breakfast staff and selection. If you were preparing breakfast at 9 they were taking the food up with no consideration for you preparing food. Also the yogurt and other things with dates on them were out of date by 15 days, I suggest look at the expiration date before eating the food, because I experiences stomach issues after eating the food. The cleaning staff didn't start cleaning my room one day until 6 in the afternoon which was very disappointing, not to mention didn't leave towels or wash clothes. Upon going to the front desk to get some they said they didn't have any they would bring in the morning. For right at 90 dollars a night before taxes they should have went and bought some to satisfy the guest. I have stayed at this place in the past a few times, but it has gone down hill since I was there 2 years ago. I will not be staying here again when I travel to Six Flags area again. More</t>
   </si>
   <si>
+    <t>Lynn S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r481305034-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -549,6 +615,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>539wilsonm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r476882486-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -564,6 +633,9 @@
     <t>I really enjoyed my stay here. It was  very nice getaway and the bed was sooo comfortable and huge. Pillows were soft and I really needed the rest. I will stay there again when I visit me son.</t>
   </si>
   <si>
+    <t>latrishap2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r475137492-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -579,6 +651,9 @@
     <t>My experience at this location was not as pleasant. The hotel needs to be updated. My toilet overflowed after one use. I wasn't happy with the old spell in the hallway and room. If updated I probably would have been an better stay.</t>
   </si>
   <si>
+    <t>montgomeryb907</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r472517970-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -597,6 +672,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>981rustyb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r471980397-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -612,6 +690,9 @@
     <t>The room was very nice and the bed was surprisingly comfy! Most hotel beds are tolerable to sleep on but the bed in my room was perfect.</t>
   </si>
   <si>
+    <t>N7709JDanab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r463244476-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -630,6 +711,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Ladyroush17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r452409661-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -648,6 +732,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Anabel M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r449226597-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -666,6 +753,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Jennifer R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r448037315-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -681,6 +771,9 @@
     <t xml:space="preserve">There was an odor in the lobby and dining area. It smelled of cigars and human waste. The attendant at the desk was in no hurry to check us in. The room itself was mediocre. Restroom door had something brown splattered on it. The beds were very firm. The breakfast consisted of Texas shaped pancakes, bread, two kinds of cereal, spoiled apples, packaged cinnamon rolls and yogurt. The trash smelled so bad we had to eat in our room. For a hotel belonging to the Wyndam family, I was expecting more. </t>
   </si>
   <si>
+    <t>58carissas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r434031678-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -699,6 +792,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Jack S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r432441887-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -714,6 +810,9 @@
     <t>This a flea bag dive Motel there were fluids on the bathroom door and floor what looked like maybe blood on the floor</t>
   </si>
   <si>
+    <t>657terryt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r431630933-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -729,6 +828,9 @@
     <t xml:space="preserve">Overall the stay was pleasant.  Grand Prairie was limited on parking because of some large Asplun tree trimming trucks. The only other thing that needs to improve is the type of breakfast available. Continental breakfast gets old. Need eggs, bacon, sausage, biscuits and gravy. </t>
   </si>
   <si>
+    <t>T8944CHmichellen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r419137466-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -747,6 +849,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>sticktrick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r416307791-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -762,6 +867,9 @@
     <t>This place SMELLS !!!! Terrible stay with inattentive staff. Avoid at all costs. Ancient building and bathroom. ZERO UPDATES. Next time I stay in Grand Prairie it definitely wont be here or at any other Wyndham property. I cant believe they have the balls to offer a room like this. Disgusting.</t>
   </si>
   <si>
+    <t>Shannon M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r414754838-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -780,6 +888,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>grandymitchell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r408973356-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -798,6 +909,9 @@
     <t>I was looking for an inexpensive hotel near Dallas Baptist University for three: my wife, an incoming freshman student, and me. I found this Super 8 online and reserved a room with 2 queen beds for 2 nights. We arrived late, and were not favorably impressed: there was no elevator (and our room was on the second floor), so we had to lug our huge suitcases up a flight of stairs; the lobby was OK, though somewhat shabby; and there were unsavory characters lurking about the property. The room turned out to be a smoking room with burn holes and stains in both bedspreads. We requested a non-smoking room and moved downstairs to a room that was just barely acceptable. We checked out the next morning and will not return.More</t>
   </si>
   <si>
+    <t>Q131ARstevenp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r406644627-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -813,6 +927,9 @@
     <t>The motel was presented well, Breakfast very weak compared to other Super 8's.   Request of additional towels from Customer Service Desk claimed they did not have any and didn't have access to them but were busy surfing on the internet.  Hmmmm</t>
   </si>
   <si>
+    <t>madinalizzy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r402141261-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -831,6 +948,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>I7476NGcharlesa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r398846309-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -849,6 +969,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>karengD4090RI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r394503672-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -864,6 +987,9 @@
     <t xml:space="preserve">The room and bath room were not clean. The furniture and headboard were dusty and the bedroom floor needed vacuuming. The bath room floor and tub were dirty. I went to Wal Mart and bought cleaning supplies for the bath room. There was no hot water in the sink. The bed was very hard. The room deco was nice. There were no eggs or any meat for breakfast. </t>
   </si>
   <si>
+    <t>anthonybE163PW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r394339884-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -876,6 +1002,9 @@
     <t xml:space="preserve">The room was very damp and musty. The exhaust fan in the bathroom didn't work, and they didn't change the bedding the first night. There was also water dripping from the ceiling onto the carpet. </t>
   </si>
   <si>
+    <t>Lizb9411</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r389512160-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -891,6 +1020,9 @@
     <t>Not impressed! No internet on the second floor. Hear person 2 dorrs down complain about roaches. Breakfast was laughable no coffee ready, madie it in the room instead, no fresh fruit to go with stale bread for toast! $100 to much for this stay!</t>
   </si>
   <si>
+    <t>Wrongturn03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r387084304-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -909,6 +1041,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Lynn H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r386521321-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -924,6 +1059,9 @@
     <t>We stayed here this past weekend--(June 25th-26th) because it was close to Lonestar Park where we race our horses.  It was horrible!  Mold in the bathroom, the faucet in the bathtub ran continuously and it was extremely hot throughout the hotel and in the rooms.  We saw roaches in our room when we turned the light on.  There are no amenities at this hotel.  No pool, workout facility and the breakfast, what little they had, was not good.  Terrible place--especially for the $81.00 plus tax-which was the cheapest room they offer.  Would rather pay 10.00 -20.00 extra dollars for a nice, clean room!</t>
   </si>
   <si>
+    <t>Robert H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r376756232-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1080,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>O517XCamandas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r369646415-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1101,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>shaunmccluskey1995</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r368068532-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1122,9 @@
     <t>I travelled from Scotland to the United States for the first time by myself this April. I was attending Wrestlemania and made all of my plans months in advance. When I arrive in Dallas I received an email from booking.com claiming they no longer had the room I booked back in November for the Days Inn across from the AT&amp;T Stadium. Thankfully, the super 8 were able to accommodate my booking during such a busy time and I had a roof over my head for the week. The room was VERY clean, and the staff were incredibly helpful and friendly. As this was my first real holiday abroad alone, I was scared and they made me feel very welcome. I felt very safe staying here.On my final night, my flight was delayed and I was put up in Dallas at a different hotel. There were several weird things which happened there, and I eventually heard a gunshot. This led to me handing in my keys at the reception, and jumping straight in an uber back to the Super 8. Again, they were very accommodating and I was able to get a room there and then.I was very happy staying here, and would have no hesitations booking here again should I decide to visit Dallas. Thanks again to their great staff!More</t>
   </si>
   <si>
+    <t>Deborah B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r361882296-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1140,9 @@
     <t>Can not believe there was no elevator in this place of business! ..This is a hotel that is two to three stories and has no elevator. .Stairs were unsafe and dangerous! ..Had no idea you can run a hotel that way...Will not ever stay there a gain! Very very unsafe!</t>
   </si>
   <si>
+    <t>Brian D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r361670979-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1161,9 @@
     <t>Location is ideal.  It's far enough from the highway but it's easily accessible and findable.   It's close to att stadium, next to Verizon center.  No issues getting to Dallas, major venue for someone who dislikes city driving.Hotel is a basic standard hotel.  It has a breakfast area.  Serves cereal, danishes and waffles.  They have a vending machine with necessities like Advil.    The room (2 queen)...the mattress is firm, not too firm.  The pillows are small, but I asked for a third and issue resolved.  Clean.  Staff ... friendly.  Owner is attentive.  I called because I was running late by a day and they assured me everything was okay.  Overall I'm happy.  I was here for an event that sold out the hotel and the service I received never made it feel like that.  More</t>
   </si>
   <si>
+    <t>E5389NEjasonl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r361511467-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1026,6 +1179,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Allmer M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r355188067-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1041,6 +1197,9 @@
     <t xml:space="preserve">The rooms were fine and area was quiet. There was construction going on in the area and hard to find location. This was my first time to Grand Prairie so was looking for things to do and enjoy. Went to a show at the Verizon Theatre. The breakfast serving are was not monitored and took along time to make sure there was enough food for others. We arrived for breakfast a little after 8 am and was not impressed with the workers. Other than this it was fine. </t>
   </si>
   <si>
+    <t>kimberlygQ8212YF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r354404545-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1215,9 @@
     <t>My visit was only an overnight stay. I had a reservation and knew I was going to arrive very late and was still greeted warmly.Room was clean and comfortable. There was a light out in the bathroom and the exhaust fan didn't work, but I was too tired to care to ask for a repair or room change as it was almost midnight. I didn't think it would be a problem for me and it really was just a minor inconvenience in the morning as I got ready; I used the long mirror in the room to see what I was doing with my hair and make-up.I let the staff know as I checked out and he immediately said if I would have let him know, he could have replaced the bulb right away. Again, I wasn't worried about it and told him I just wanted him to know so they could address the issue before they rented that room again.I had my 3 children with me and felt safe. I would stay here again. More</t>
   </si>
   <si>
+    <t>715joeo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r352419154-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1074,6 +1236,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>robertmE360PB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r329178915-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1257,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>C7960NBkevinb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r327244187-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1275,9 @@
     <t>Over all the stay was good the fro.t desk people were curtiouse. And very helpful. The rooms were clean and there breakfast. Was good as well.</t>
   </si>
   <si>
+    <t>rosag10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r326256976-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1122,6 +1293,9 @@
     <t xml:space="preserve">This stay was bad.  The room smelled terrible.  Our room had dirty water in the restroom sink, there was a bar of soap that was open. There was trash in the restroom trash can.  One of the lamps did not work and the wall plug did not work.  The staff was very friendly though.  There was not much variety in the breakfast selection.  I would not stay here again.  </t>
   </si>
   <si>
+    <t>dcolbert2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r320492277-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1314,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>W5410RDangelam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r318753415-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1155,6 +1332,9 @@
     <t>Shower broken,drinks left from previous guest still in fridge, access cards from previous guest still in the room which means it wasnt cleaned properly.   And ac didnt work...all in all a roach motel that i will never stay in again....thanks...</t>
   </si>
   <si>
+    <t>beenee2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r318741266-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1167,6 +1347,9 @@
     <t>Very uncomfortable bed and pillows. Top of toilet was dirty, there was an open safety pin sticking out the side of the bed holding the mattress together (dangerous for small children).....but it was relatively cheap for the area and a good location for us</t>
   </si>
   <si>
+    <t>255victorw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r294786647-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1185,6 +1368,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>B469NNmariaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r293993149-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1200,6 +1386,9 @@
     <t xml:space="preserve">I love the customer service from the very beginning cause I called for directions &amp; she was very helpful plus I also enjoyed the room cause it was very.clean! I also enjoyed going to eat breakfast cause they serve the food I liked! I'll be staying at the hotel location for future visits to Grand Prairie! </t>
   </si>
   <si>
+    <t>Z3322EZtraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r292756863-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1215,6 +1404,9 @@
     <t xml:space="preserve">Staff was pleasant, helpful. Rooms however (I changed to another because of slamming doors one night) need maintenance. One toilet barely flushed; towel rack coming off the wall. Power went out for a short time one night. Housekeeping good in my opinion.   </t>
   </si>
   <si>
+    <t>88benjamint</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r289328524-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1230,6 +1422,9 @@
     <t xml:space="preserve">Great location centered to great attractions. Room smelled damped and wet. We had to go buy air fresheners and carpet powder to freshen up the room. Breakfast was very poor. </t>
   </si>
   <si>
+    <t>Heather_Therese</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r287459091-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1239,6 +1434,9 @@
     <t>07/09/2015</t>
   </si>
   <si>
+    <t>Good B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r285671968-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1257,6 +1455,9 @@
     <t>The cause of the bad service and dirty rooms is that this place like many others now are run by families from India and they live on the property and are trying to live dirt cheap. Since you are technically in their home you are expected to do as they say and live as poorly as they do. The trick is to call the front desk of any hotel and see who answers. If they speak with a foreign accent call another hotel, you will save yourself alot of trouble. The people from India do not honor your reservation if more people show up before you do and they will not resolve any problems you have while in their home/hotel. I have seen the owners grandmothers who were well past sixty years old in San Antonio Howard Johnson and Motel 6 Arkansas cleaning the property around the motel. I had been booking at motel 6 for 10 years because the hotels were company owned but found out last year they are franchising when twice I stayed in 2 different motel 6 and they were friendly but extra vigilant of my coming and going and something was broken or didn't work in both rooms I stayed in. People from India get loans and grants to fund their franchise fees but anyway, why do American born people not franchise instead. Companies you are getting bad reputations from franchising to foreigners, they do...The cause of the bad service and dirty rooms is that this place like many others now are run by families from India and they live on the property and are trying to live dirt cheap. Since you are technically in their home you are expected to do as they say and live as poorly as they do. The trick is to call the front desk of any hotel and see who answers. If they speak with a foreign accent call another hotel, you will save yourself alot of trouble. The people from India do not honor your reservation if more people show up before you do and they will not resolve any problems you have while in their home/hotel. I have seen the owners grandmothers who were well past sixty years old in San Antonio Howard Johnson and Motel 6 Arkansas cleaning the property around the motel. I had been booking at motel 6 for 10 years because the hotels were company owned but found out last year they are franchising when twice I stayed in 2 different motel 6 and they were friendly but extra vigilant of my coming and going and something was broken or didn't work in both rooms I stayed in. People from India get loans and grants to fund their franchise fees but anyway, why do American born people not franchise instead. Companies you are getting bad reputations from franchising to foreigners, they do not follow the hotels promise of service and how can they when they come from countries where they learn to watch out for themselves first and step over people if you have to, to get ahead.More</t>
   </si>
   <si>
+    <t>613gaya</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r279397866-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1275,6 +1476,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>ambero87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r278272653-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +1494,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>164gilberts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r277945862-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1305,6 +1512,9 @@
     <t>I found the room suitable and efficient for a no frills stay. I was disappointed by the breakfast. I guess I'm more of a bagels and cream cheese plus fresh fruit person. You might consider fewer high sugar pastries with the high rates of diabetes in our society. Otherwise, my stay was quite pleasant and I'll use them again if close to my travel destination.</t>
   </si>
   <si>
+    <t>lucymF3056KD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r271873362-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1320,6 +1530,9 @@
     <t>this is our 4th time here, so convenient to the Verizon Theater in Grand Prairie for our concerts, it's average but never any complaints and good customer service</t>
   </si>
   <si>
+    <t>Sidney H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r269626458-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1329,6 +1542,9 @@
     <t>05/03/2015</t>
   </si>
   <si>
+    <t>Crystal Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r269570635-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1347,6 +1563,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Do D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r264547199-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1362,6 +1581,9 @@
     <t xml:space="preserve">The hotel is old and dated. The carpet is old and moldy. The rooms were not particularly clean. The table and desk was in poor shape. It was so bad i was afraid to put anything on the table and sit in the chairs. This place needs to be torn down and/or severely remodeled. </t>
   </si>
   <si>
+    <t>Eric H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r263138160-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1380,6 +1602,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Kaye B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r258925834-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1395,6 +1620,9 @@
     <t>The bed was comfortable. The hotel is a bit weathered. The breakfast wasn't worth bothering with (barely anything there and small seating area), so we left and paid for a hot breakfast elsewhere each morning. The tub didn't have a plug option, so you can only take showers. We chose the hotel for the location as we were seeing a concert just up the street.</t>
   </si>
   <si>
+    <t>Sheila D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r253499914-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1416,6 +1644,9 @@
     <t>My booking was not what I was going to get. I had a hard time with the front desk about it, but finally they made good on the reservation. However the next morning I could smell all the smoker's smoke coming into my room, so I was requested to be moved. I moved upstairs, the stairs are very steep and no railing on the wall (very hazardous). I didn't get a microwave due to this move, which was disappointing and the booking said breakfast, this was just a continental. Some staff were very friendly. It definitely was just a place to sleep. It needs major upgrades in the rooms. Old mattresses, old carpeting, old tubs, etc. It was decent for the price paid.More</t>
   </si>
   <si>
+    <t>Sherry W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r250743861-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1437,6 +1668,9 @@
     <t>The other reviews were correct, the room smells, the breakfast is so so, the staff are friendly. Here is the breakdown: I got a non-smoking room but there was still a smell in the room so take some air freshener or spray your favorite perfume; beware of the toilet-it may not flush at first, there is a trick to that handle; the breakfast consist of cereal, pastry, and coffee; the staff are quick and willing to help you if there are any issues.The area is safe. No issues in the parking lot or any suspicious activity. Just be smart when traveling anywhere. The room had a microwave and refrigerator but I still rate this hotel between poor and average based on the above. The breakfast was free, parking was free, wifi was free, it was very quiet at night and I got a great deal on hotels.com so I am not upset at all. It was good enough for the price.More</t>
   </si>
   <si>
+    <t>300juliev</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r245780201-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1455,6 +1689,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>joshuadavis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r237419503-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1473,6 +1710,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>342earlm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r237395806-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1485,6 +1725,9 @@
     <t xml:space="preserve">The staff was fantastic but my room was not so good.  one bed looking like it was sagging towards the headboard and the bathroom was not good.  </t>
   </si>
   <si>
+    <t>Hoa M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r235687707-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1500,6 +1743,9 @@
     <t>This hotel is in an excellent location. With easy access to I30 that can take us to Dallas or to Forth worth areas. Our room is big with 2 queen beds, a good size of frig, a 32 inch LED TV, and a good size of bathroom. The hotel also offers the continental breakfast with pastries and coffee, juices. We will definately return to this hotel in our future trips to Dallas. Highly recommend this hotel to my friends.</t>
   </si>
   <si>
+    <t>Chuck R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r221235574-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1518,6 +1764,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>rrosa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r216498195-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1536,6 +1785,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Lou M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r210641515-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1554,6 +1806,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Cfannin1229</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r198465162-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1569,6 +1824,9 @@
     <t xml:space="preserve">Thin walls outdated rooms herd a couple doing the 2 person waltz all night n making other loud noises I drive a truck and ended up going to the parking lot and sleeping in my truck never again have a small dog they charged 30 bucks for her so it almost as much for her as it was for me </t>
   </si>
   <si>
+    <t>Justin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r197882960-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1587,6 +1845,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Stephanie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r196292979-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1602,6 +1863,9 @@
     <t xml:space="preserve">The room was good, for the price. The staff was unbelievably RUDE! Ive never been to a hotel and had them CHARGE ME FOR USING THE WASH CLOTHES. It was incredibly rude. I will NEVER stay at a Super 8 again. I would be ashamed if I was the owner of this facility. Secondly GET STAFF THAT SPEAKS ENGLISH! THIS IS AMERICA! NOT MEXICO! </t>
   </si>
   <si>
+    <t>Charles B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r189394033-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1614,6 +1878,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Peggy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r189234930-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1632,6 +1899,9 @@
     <t>Went to see Dallas Game at Arlington this was the only place with a room still available.I had read the bad reviuws but went a head and booked a room.We arrived at midnight .The rooms are super small asked for 2 beds and got a full size .This hotel is nothing but a place for partys.people all over partying room doors open.The people next to us must have had 15 people in there partying sounded like they were crashing beds and furniture ,called the desk at 3 in the morning and they said they would  take care of it at 5 it was still going on .I complained to manager when we checked out and he said hed give me a discount on my credit card but IT NEVER HAPPENED,,I was not surprised but i will never stay here again ,would have got more sleep staying in my car,More</t>
   </si>
   <si>
+    <t>Barry H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r181888407-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1650,6 +1920,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Rodney G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r180344882-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1665,6 +1938,9 @@
     <t>ive stayed with you several times...im part of whyndam rewards. i made a reservation online before i headed out to your property..the online price was$49.50..when i arrived they said it was ballon fiesta week and that there was no way i was paying that price...the said the lowest price was $68....i was tired from traveling and did not want to argue just wanted to rest...am very disappointed that you did not honor the online price...would like to talk to someone about this...</t>
   </si>
   <si>
+    <t>Daniel F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r178642597-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1683,6 +1959,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Celia-sally F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r176513043-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1701,6 +1980,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Quiana M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r174585095-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1716,6 +1998,9 @@
     <t>do not waste your money on this location; rooms r stale smelling, poor lighting, dirty, plumbing suck; couldn't turn the water off in the shower; dingy looking,cheap towels and blankets on beds; beds appear to be sitting on the floor.</t>
   </si>
   <si>
+    <t>Bryan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r168633486-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1734,6 +2019,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Pete A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r167978465-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1767,6 +2055,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>erika b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r163479295-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1785,6 +2076,9 @@
     <t>I went here for a graduation on Friday. we were very pressed for time so we just turned to air on ad showered. We arrived back to our rooms some time later. The rooms were hot! I called the front desk and the clerk promised that he would be right up to check it out. This was at 11:30pm. Tired, we all fell asleep only to wake up in the middle of the night to hot rooms. The clerk NEVER showed up to our rooms!The air was on 60 yet the air conditioner never cooled the rooms. It was turning on and off. I went to the restroom and turned on the light and there were roaches everywhere! This was around 2 am. The clerk said the air conditioner was set on automatic in all of the rooms. The rooms were not cool at all. So what he was saying is that I am paying to stay here but they control the air or that 60 is the new 75?The entire hotel was hot!!There was a whole in my room floor that was hidden by carpet. I only found that out after my heel sIipped in it! I can only assume that there was a party next door to my room. My 6 year old was up putting cold towels on her face!!!! Then to add to the madness the morning clerk says that he got a note that there...I went here for a graduation on Friday. we were very pressed for time so we just turned to air on ad showered. We arrived back to our rooms some time later. The rooms were hot! I called the front desk and the clerk promised that he would be right up to check it out. This was at 11:30pm. Tired, we all fell asleep only to wake up in the middle of the night to hot rooms. The clerk NEVER showed up to our rooms!The air was on 60 yet the air conditioner never cooled the rooms. It was turning on and off. I went to the restroom and turned on the light and there were roaches everywhere! This was around 2 am. The clerk said the air conditioner was set on automatic in all of the rooms. The rooms were not cool at all. So what he was saying is that I am paying to stay here but they control the air or that 60 is the new 75?The entire hotel was hot!!There was a whole in my room floor that was hidden by carpet. I only found that out after my heel sIipped in it! I can only assume that there was a party next door to my room. My 6 year old was up putting cold towels on her face!!!! Then to add to the madness the morning clerk says that he got a note that there was only one roach in the tub! What! Are you serious? One roach is a roach too many!!!! Save your money and find somewhere else to stay!!More</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r163203869-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1800,6 +2094,9 @@
     <t xml:space="preserve">Hotel was clean and everything worked fine. Staff was friendly; just a very strange town. Not much too do there. No pool so that was a bummer. The TV's speakers were blown so we had to watch it quietly. The bed was really broken in so my back was aching every morning until the shower. </t>
   </si>
   <si>
+    <t>Emile E Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r157429698-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1818,6 +2115,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Gerardo D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r157319812-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1833,6 +2133,9 @@
     <t>Rooms need improvement. Deodorize the rooms. For the cost we thought it could be better. I guess for the short notice and stay it was ok but not good.</t>
   </si>
   <si>
+    <t>Suzanne B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r156268913-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1851,6 +2154,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Jrsmith1154</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r151274555-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1887,6 +2193,9 @@
     <t>I booked this hotel online and noted that I was travelling with pet (dog). There was no charge when I checked in. The second day they wanted to charge for the dog. When I told them I would just check out they informed me they would charge for the second day and pet anyway. Very rude front desk</t>
   </si>
   <si>
+    <t>IRENE K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r148635827-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1923,6 +2232,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>MELINDA W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r144403615-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1938,6 +2250,9 @@
     <t xml:space="preserve">The only reason we stayed here was because it was so close to the Verizon Theater. The walls were paper thin. We heard doors slamming all night as well as our neighbors talking on their phone. We could hear them even coughing. The entire place reeked of cigarettes, and the whole floor was non-smoking. The bed was incredibly lumpy, worn out and I was itchy all night. The whole place looked like it was crumbling. There were hardly any outlets to charge phones or other electronics. </t>
   </si>
   <si>
+    <t>MCSR78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r144109937-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1951,6 +2266,9 @@
   </si>
   <si>
     <t>Nice rooms and great service. The sign said vending and ice, Ice machine worked and clean, Vending was a soda machine that was sold out except bottled water. A chip or candy machine would have been nice.Bathtub had no stopper so bath was out of the question. Shower worked great.Take your own pillows. Theirs are like sleeping on a kleenex.</t>
+  </si>
+  <si>
+    <t>April W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r121065812-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
@@ -1980,6 +2298,9 @@
 The second night was much worse - I had to deal with kids roughhousing outside my window until early in the morning. Around 1am I got up and got dressed with the intention of going to find a WalMart or something that was open in order to go buy a box fan in order to drown out the noise, but decided instead to crank the A/C as low as it would go (in hopes that it wouldn't cut off) and...I spent two nights in the Super 8 in Grand Prairie over Thanksgiving Weekend 2011. It was, without a doubt, the worse hotel experience I've ever had.I was warned right off the bat when I checked in that the hotel staff had lost control of the hotel -- when I travel I take a stuffed animal with me for a little "piece of home" while on the road. I've been doing this for the last 15+ years without an issue. This time, however, right after I checked in and was making my way up the stairs to the second floor some kids saw me and started laughing at me for carrying a stuffed animal around. This was a sign of how the rest of the weekend was going to go.The rest of that night I had to deal with kids running up and down the hallways slamming doors, knocking on other people's doors and yelling at each other.The second night was much worse - I had to deal with kids roughhousing outside my window until early in the morning. Around 1am I got up and got dressed with the intention of going to find a WalMart or something that was open in order to go buy a box fan in order to drown out the noise, but decided instead to crank the A/C as low as it would go (in hopes that it wouldn't cut off) and bundle up in bed. Not the most environmentally sound decision I've made, after trying to sleep for 3+ hours of screaming kids, I just wanted to get some sleep.The hotel staff made zero attempt to get this under control. It was horrible -- even college dorms have "quiet hours" at night!I read a review of this place saying that the walls must be paper thin, and after staying here two nights, I have to agree -- and add to that the doors and the windows as well!I do not have high expectations for a hotel in this price range, outside of I want a clean and quiet room for sleeping in. The room was clean, but it was *NOT* quiet in any way, shape or form.More</t>
   </si>
   <si>
+    <t>malldulldogs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r116831963-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1995,6 +2316,9 @@
     <t>My sister's stuff got all wet and we don't know how it did but the person at the front paid for the washing and drying which was so awsome!! Thanks</t>
   </si>
   <si>
+    <t>HappygoTraveling</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r116499798-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2013,6 +2337,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>vap91179</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r45765973-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2031,6 +2358,9 @@
     <t>August 2009</t>
   </si>
   <si>
+    <t>ann99HongKong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r19589919-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2050,6 +2380,9 @@
   </si>
   <si>
     <t>I need a room in the mid-way of my long drive to Carlsbad.  Off from the highway, I found this hotel from my GPS.  My previous experience with Super8 has been good so Super8 is my first choice.  Unfortunately, when I asked for a room, the lady was very rude and said the rate is $79.  I said Super8 seldom charged so high and was told that the regualr rate is $64 and now the motel is nearly full so they have to raise the price.  I was shocked  by such a reply and requested to have the regular rate.  The answer was no so I left feeling really annoyed.  I ended up to have a very good room for just $42 tax included in Motel 6 - just their next door!  I wished I could find a channel to complain to Super 8 about their rudeness and unreasonable policy.More</t>
+  </si>
+  <si>
+    <t>Bossaflorida</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106995-r18965956-Super_8_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
@@ -2569,43 +2902,47 @@
       <c r="A2" t="n">
         <v>7469</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178542</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2629,50 +2966,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>7469</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178543</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -2692,35 +3033,39 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>7469</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>178544</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -2728,10 +3073,10 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2752,51 +3097,52 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>7469</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178545</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2820,50 +3166,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>7469</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178546</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -2887,50 +3237,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>7469</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178547</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -2954,50 +3308,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7469</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178548</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
         <v>90</v>
-      </c>
-      <c r="O8" t="s">
-        <v>84</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3011,50 +3369,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7469</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>178549</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3078,50 +3440,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7469</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178550</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
         <v>97</v>
       </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>90</v>
-      </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -3143,50 +3509,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>7469</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>8371</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -3210,50 +3580,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>7469</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178551</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -3277,50 +3651,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>7469</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178552</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3344,41 +3722,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>7469</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>38693</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
@@ -3397,50 +3779,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>7469</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>178553</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3464,50 +3850,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>7469</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>178554</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="O16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -3531,50 +3921,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>7469</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>178555</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -3598,50 +3992,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>7469</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>178556</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="O18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -3665,50 +4063,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>7469</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>178557</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="O19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3732,50 +4134,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>7469</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>44531</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -3799,50 +4205,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>7469</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>178558</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="O21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3866,50 +4276,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>7469</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>178559</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -3933,50 +4347,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>7469</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C23" t="s">
+        <v>190</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="O23" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -4000,50 +4418,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>7469</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>178560</v>
+      </c>
+      <c r="C24" t="s">
+        <v>197</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="J24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="O24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -4067,50 +4489,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>7469</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>178561</v>
+      </c>
+      <c r="C25" t="s">
+        <v>203</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="J25" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="K25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -4134,50 +4560,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>7469</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>178562</v>
+      </c>
+      <c r="C26" t="s">
+        <v>209</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="J26" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="O26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -4201,50 +4631,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>7469</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>178563</v>
+      </c>
+      <c r="C27" t="s">
+        <v>216</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="J27" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="K27" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4268,50 +4702,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>7469</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>178564</v>
+      </c>
+      <c r="C28" t="s">
+        <v>222</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="J28" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="K28" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="O28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -4335,50 +4773,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>7469</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>178565</v>
+      </c>
+      <c r="C29" t="s">
+        <v>229</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="J29" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="K29" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -4402,50 +4844,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>7469</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>178566</v>
+      </c>
+      <c r="C30" t="s">
+        <v>236</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="J30" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="K30" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4469,50 +4915,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>7469</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>399</v>
+      </c>
+      <c r="C31" t="s">
+        <v>243</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="J31" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="K31" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="O31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -4536,50 +4986,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>7469</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>178567</v>
+      </c>
+      <c r="C32" t="s">
+        <v>249</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="J32" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="K32" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="L32" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="O32" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4603,50 +5057,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>7469</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>48664</v>
+      </c>
+      <c r="C33" t="s">
+        <v>256</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="J33" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="K33" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -4670,50 +5128,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>7469</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>178568</v>
+      </c>
+      <c r="C34" t="s">
+        <v>262</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="J34" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="K34" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4737,50 +5199,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>7469</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>178569</v>
+      </c>
+      <c r="C35" t="s">
+        <v>268</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="J35" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="K35" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4804,50 +5270,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>7469</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>178570</v>
+      </c>
+      <c r="C36" t="s">
+        <v>275</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="J36" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4861,50 +5331,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>7469</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>5544</v>
+      </c>
+      <c r="C37" t="s">
+        <v>281</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="J37" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="K37" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="L37" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="O37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -4928,50 +5402,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>7469</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>178571</v>
+      </c>
+      <c r="C38" t="s">
+        <v>288</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="J38" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="K38" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="L38" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="O38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4985,50 +5463,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>7469</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>178572</v>
+      </c>
+      <c r="C39" t="s">
+        <v>295</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="J39" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="K39" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -5052,50 +5534,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>7469</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>178573</v>
+      </c>
+      <c r="C40" t="s">
+        <v>301</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="J40" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="O40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5113,50 +5599,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>7469</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>178574</v>
+      </c>
+      <c r="C41" t="s">
+        <v>308</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="J41" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="K41" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="O41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -5180,50 +5670,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>7469</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>178575</v>
+      </c>
+      <c r="C42" t="s">
+        <v>315</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="J42" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="K42" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="O42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -5247,50 +5741,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>7469</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>178576</v>
+      </c>
+      <c r="C43" t="s">
+        <v>321</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="J43" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="K43" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5314,50 +5812,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>7469</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>178577</v>
+      </c>
+      <c r="C44" t="s">
+        <v>326</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="J44" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="K44" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="L44" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="O44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -5381,50 +5883,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>7469</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>178578</v>
+      </c>
+      <c r="C45" t="s">
+        <v>332</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="J45" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="K45" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="L45" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5438,50 +5944,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>7469</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>43985</v>
+      </c>
+      <c r="C46" t="s">
+        <v>339</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="J46" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="K46" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="L46" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="O46" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5499,50 +6009,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>7469</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>8062</v>
+      </c>
+      <c r="C47" t="s">
+        <v>345</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="J47" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="K47" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="L47" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="O47" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5566,50 +6080,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>7469</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>178579</v>
+      </c>
+      <c r="C48" t="s">
+        <v>352</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="J48" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="K48" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="L48" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="O48" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5633,50 +6151,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>7469</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>178580</v>
+      </c>
+      <c r="C49" t="s">
+        <v>359</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="J49" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="K49" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="L49" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="O49" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5696,50 +6218,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>7469</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>8805</v>
+      </c>
+      <c r="C50" t="s">
+        <v>366</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="J50" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="K50" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="L50" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="O50" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5753,50 +6279,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>7469</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>1399</v>
+      </c>
+      <c r="C51" t="s">
+        <v>372</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="J51" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="K51" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="L51" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="O51" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5810,50 +6340,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>328</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>7469</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>178581</v>
+      </c>
+      <c r="C52" t="s">
+        <v>379</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="J52" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="K52" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="L52" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="O52" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -5877,50 +6411,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>7469</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>178582</v>
+      </c>
+      <c r="C53" t="s">
+        <v>385</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="J53" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="K53" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="L53" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5944,50 +6482,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>7469</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>178583</v>
+      </c>
+      <c r="C54" t="s">
+        <v>391</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>339</v>
+        <v>392</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="J54" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="K54" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="L54" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="O54" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6011,50 +6553,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>7469</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>178584</v>
+      </c>
+      <c r="C55" t="s">
+        <v>397</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="J55" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="K55" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="L55" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -6078,50 +6624,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>7469</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>178585</v>
+      </c>
+      <c r="C56" t="s">
+        <v>404</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>350</v>
+        <v>405</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>351</v>
+        <v>406</v>
       </c>
       <c r="J56" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="K56" t="s">
-        <v>353</v>
+        <v>408</v>
       </c>
       <c r="L56" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>355</v>
+        <v>410</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6137,50 +6687,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>7469</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>178586</v>
+      </c>
+      <c r="C57" t="s">
+        <v>411</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="J57" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="K57" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>355</v>
+        <v>410</v>
       </c>
       <c r="O57" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6204,50 +6758,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>7469</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>178587</v>
+      </c>
+      <c r="C58" t="s">
+        <v>417</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="J58" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="K58" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="L58" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>355</v>
+        <v>410</v>
       </c>
       <c r="O58" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6271,50 +6829,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>7469</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>178588</v>
+      </c>
+      <c r="C59" t="s">
+        <v>423</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>366</v>
+        <v>424</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="J59" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="K59" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="L59" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="O59" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6338,50 +6900,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>7469</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>178589</v>
+      </c>
+      <c r="C60" t="s">
+        <v>430</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>372</v>
+        <v>431</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>373</v>
+        <v>432</v>
       </c>
       <c r="J60" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="K60" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="L60" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="O60" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -6405,50 +6971,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>7469</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>178590</v>
+      </c>
+      <c r="C61" t="s">
+        <v>436</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>377</v>
+        <v>437</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>378</v>
+        <v>438</v>
       </c>
       <c r="J61" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="K61" t="s">
-        <v>379</v>
+        <v>439</v>
       </c>
       <c r="L61" t="s">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="O61" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6472,50 +7042,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>380</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>7469</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>178591</v>
+      </c>
+      <c r="C62" t="s">
+        <v>441</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>381</v>
+        <v>442</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>382</v>
+        <v>443</v>
       </c>
       <c r="J62" t="s">
-        <v>383</v>
+        <v>444</v>
       </c>
       <c r="K62" t="s">
-        <v>384</v>
+        <v>445</v>
       </c>
       <c r="L62" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="O62" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6539,50 +7113,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>7469</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>178592</v>
+      </c>
+      <c r="C63" t="s">
+        <v>448</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>387</v>
+        <v>449</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="J63" t="s">
-        <v>389</v>
+        <v>451</v>
       </c>
       <c r="K63" t="s">
-        <v>390</v>
+        <v>452</v>
       </c>
       <c r="L63" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="O63" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6606,50 +7184,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>7469</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>178593</v>
+      </c>
+      <c r="C64" t="s">
+        <v>454</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="J64" t="s">
-        <v>394</v>
+        <v>457</v>
       </c>
       <c r="K64" t="s">
-        <v>395</v>
+        <v>458</v>
       </c>
       <c r="L64" t="s">
-        <v>396</v>
+        <v>459</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="O64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6673,50 +7255,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>396</v>
+        <v>459</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>7469</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>178594</v>
+      </c>
+      <c r="C65" t="s">
+        <v>460</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="J65" t="s">
-        <v>399</v>
+        <v>463</v>
       </c>
       <c r="K65" t="s">
-        <v>400</v>
+        <v>464</v>
       </c>
       <c r="L65" t="s">
-        <v>401</v>
+        <v>465</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="O65" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P65" t="n">
         <v>2</v>
@@ -6740,35 +7326,39 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>401</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>7469</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>178595</v>
+      </c>
+      <c r="C66" t="s">
+        <v>466</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>402</v>
+        <v>467</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>403</v>
+        <v>468</v>
       </c>
       <c r="J66" t="s">
-        <v>404</v>
+        <v>469</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -6776,10 +7366,10 @@
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="O66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6800,51 +7390,52 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>7469</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>178596</v>
+      </c>
+      <c r="C67" t="s">
+        <v>470</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="J67" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="K67" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="L67" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="O67" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6858,50 +7449,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>7469</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>178597</v>
+      </c>
+      <c r="C68" t="s">
+        <v>477</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>411</v>
+        <v>478</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="J68" t="s">
-        <v>413</v>
+        <v>480</v>
       </c>
       <c r="K68" t="s">
-        <v>414</v>
+        <v>481</v>
       </c>
       <c r="L68" t="s">
-        <v>415</v>
+        <v>482</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>416</v>
+        <v>483</v>
       </c>
       <c r="O68" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6925,50 +7520,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>415</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>7469</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>178598</v>
+      </c>
+      <c r="C69" t="s">
+        <v>484</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="J69" t="s">
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="K69" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="L69" t="s">
-        <v>420</v>
+        <v>488</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>421</v>
+        <v>489</v>
       </c>
       <c r="O69" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6992,50 +7591,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>420</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>7469</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>178599</v>
+      </c>
+      <c r="C70" t="s">
+        <v>490</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>422</v>
+        <v>491</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>423</v>
+        <v>492</v>
       </c>
       <c r="J70" t="s">
-        <v>424</v>
+        <v>493</v>
       </c>
       <c r="K70" t="s">
-        <v>425</v>
+        <v>494</v>
       </c>
       <c r="L70" t="s">
-        <v>426</v>
+        <v>495</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>421</v>
+        <v>489</v>
       </c>
       <c r="O70" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7059,50 +7662,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>426</v>
+        <v>495</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>7469</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>178600</v>
+      </c>
+      <c r="C71" t="s">
+        <v>496</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>427</v>
+        <v>497</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>428</v>
+        <v>498</v>
       </c>
       <c r="J71" t="s">
-        <v>429</v>
+        <v>499</v>
       </c>
       <c r="K71" t="s">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="L71" t="s">
-        <v>431</v>
+        <v>501</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>421</v>
+        <v>489</v>
       </c>
       <c r="O71" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7124,35 +7731,39 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>431</v>
+        <v>501</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>7469</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>22813</v>
+      </c>
+      <c r="C72" t="s">
+        <v>502</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>433</v>
+        <v>504</v>
       </c>
       <c r="J72" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s"/>
@@ -7160,10 +7771,10 @@
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>421</v>
+        <v>489</v>
       </c>
       <c r="O72" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7184,51 +7795,52 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
-      <c r="Y72" t="s"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>7469</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>178601</v>
+      </c>
+      <c r="C73" t="s">
+        <v>506</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>436</v>
+        <v>508</v>
       </c>
       <c r="J73" t="s">
-        <v>437</v>
+        <v>509</v>
       </c>
       <c r="K73" t="s">
-        <v>438</v>
+        <v>510</v>
       </c>
       <c r="L73" t="s">
-        <v>439</v>
+        <v>511</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>440</v>
+        <v>512</v>
       </c>
       <c r="O73" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P73" t="n">
         <v>2</v>
@@ -7252,50 +7864,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>439</v>
+        <v>511</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>7469</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>178602</v>
+      </c>
+      <c r="C74" t="s">
+        <v>513</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>441</v>
+        <v>514</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="J74" t="s">
-        <v>443</v>
+        <v>516</v>
       </c>
       <c r="K74" t="s">
-        <v>444</v>
+        <v>517</v>
       </c>
       <c r="L74" t="s">
-        <v>445</v>
+        <v>518</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>440</v>
+        <v>512</v>
       </c>
       <c r="O74" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P74" t="n">
         <v>2</v>
@@ -7319,50 +7935,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>445</v>
+        <v>518</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>7469</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C75" t="s">
+        <v>519</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>446</v>
+        <v>520</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="J75" t="s">
-        <v>448</v>
+        <v>522</v>
       </c>
       <c r="K75" t="s">
-        <v>449</v>
+        <v>523</v>
       </c>
       <c r="L75" t="s">
-        <v>450</v>
+        <v>524</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>451</v>
+        <v>525</v>
       </c>
       <c r="O75" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -7386,50 +8006,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>450</v>
+        <v>524</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>7469</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>178603</v>
+      </c>
+      <c r="C76" t="s">
+        <v>526</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>452</v>
+        <v>527</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>453</v>
+        <v>528</v>
       </c>
       <c r="J76" t="s">
-        <v>454</v>
+        <v>529</v>
       </c>
       <c r="K76" t="s">
-        <v>455</v>
+        <v>530</v>
       </c>
       <c r="L76" t="s">
-        <v>456</v>
+        <v>531</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>451</v>
+        <v>525</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7453,50 +8077,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>456</v>
+        <v>531</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>7469</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>1511</v>
+      </c>
+      <c r="C77" t="s">
+        <v>532</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>457</v>
+        <v>533</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>458</v>
+        <v>534</v>
       </c>
       <c r="J77" t="s">
-        <v>459</v>
+        <v>535</v>
       </c>
       <c r="K77" t="s">
-        <v>460</v>
+        <v>536</v>
       </c>
       <c r="L77" t="s">
-        <v>461</v>
+        <v>537</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>462</v>
+        <v>538</v>
       </c>
       <c r="O77" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P77" t="n">
         <v>2</v>
@@ -7520,50 +8148,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>463</v>
+        <v>539</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>7469</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>47157</v>
+      </c>
+      <c r="C78" t="s">
+        <v>540</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>464</v>
+        <v>541</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>465</v>
+        <v>542</v>
       </c>
       <c r="J78" t="s">
-        <v>466</v>
+        <v>543</v>
       </c>
       <c r="K78" t="s">
-        <v>467</v>
+        <v>544</v>
       </c>
       <c r="L78" t="s">
-        <v>468</v>
+        <v>545</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>469</v>
+        <v>546</v>
       </c>
       <c r="O78" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -7583,50 +8215,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>470</v>
+        <v>547</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>7469</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>178604</v>
+      </c>
+      <c r="C79" t="s">
+        <v>548</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>471</v>
+        <v>549</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>472</v>
+        <v>550</v>
       </c>
       <c r="J79" t="s">
-        <v>473</v>
+        <v>551</v>
       </c>
       <c r="K79" t="s">
-        <v>474</v>
+        <v>552</v>
       </c>
       <c r="L79" t="s">
-        <v>475</v>
+        <v>553</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="O79" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7650,50 +8286,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>475</v>
+        <v>553</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>7469</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>178605</v>
+      </c>
+      <c r="C80" t="s">
+        <v>555</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>477</v>
+        <v>556</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>478</v>
+        <v>557</v>
       </c>
       <c r="J80" t="s">
-        <v>479</v>
+        <v>558</v>
       </c>
       <c r="K80" t="s">
-        <v>480</v>
+        <v>559</v>
       </c>
       <c r="L80" t="s">
-        <v>481</v>
+        <v>560</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>482</v>
+        <v>561</v>
       </c>
       <c r="O80" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7717,50 +8357,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>481</v>
+        <v>560</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>7469</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>178606</v>
+      </c>
+      <c r="C81" t="s">
+        <v>562</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>483</v>
+        <v>563</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>484</v>
+        <v>564</v>
       </c>
       <c r="J81" t="s">
-        <v>479</v>
+        <v>558</v>
       </c>
       <c r="K81" t="s">
-        <v>485</v>
+        <v>565</v>
       </c>
       <c r="L81" t="s">
-        <v>486</v>
+        <v>566</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>482</v>
+        <v>561</v>
       </c>
       <c r="O81" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7784,50 +8428,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>486</v>
+        <v>566</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>7469</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>178607</v>
+      </c>
+      <c r="C82" t="s">
+        <v>567</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>487</v>
+        <v>568</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>488</v>
+        <v>569</v>
       </c>
       <c r="J82" t="s">
-        <v>489</v>
+        <v>570</v>
       </c>
       <c r="K82" t="s">
-        <v>490</v>
+        <v>571</v>
       </c>
       <c r="L82" t="s">
-        <v>491</v>
+        <v>572</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>482</v>
+        <v>561</v>
       </c>
       <c r="O82" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7851,50 +8499,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>491</v>
+        <v>572</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>7469</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>17748</v>
+      </c>
+      <c r="C83" t="s">
+        <v>573</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>492</v>
+        <v>574</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>493</v>
+        <v>575</v>
       </c>
       <c r="J83" t="s">
-        <v>494</v>
+        <v>576</v>
       </c>
       <c r="K83" t="s">
-        <v>495</v>
+        <v>577</v>
       </c>
       <c r="L83" t="s">
-        <v>496</v>
+        <v>578</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>497</v>
+        <v>579</v>
       </c>
       <c r="O83" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -7908,50 +8560,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>496</v>
+        <v>578</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>7469</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>178608</v>
+      </c>
+      <c r="C84" t="s">
+        <v>580</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>498</v>
+        <v>581</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>499</v>
+        <v>582</v>
       </c>
       <c r="J84" t="s">
-        <v>500</v>
+        <v>583</v>
       </c>
       <c r="K84" t="s">
-        <v>501</v>
+        <v>584</v>
       </c>
       <c r="L84" t="s">
-        <v>502</v>
+        <v>585</v>
       </c>
       <c r="M84" t="n">
         <v>2</v>
       </c>
       <c r="N84" t="s">
-        <v>503</v>
+        <v>586</v>
       </c>
       <c r="O84" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -7971,50 +8627,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>502</v>
+        <v>585</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>7469</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>5227</v>
+      </c>
+      <c r="C85" t="s">
+        <v>587</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>504</v>
+        <v>588</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>505</v>
+        <v>589</v>
       </c>
       <c r="J85" t="s">
-        <v>506</v>
+        <v>590</v>
       </c>
       <c r="K85" t="s">
-        <v>507</v>
+        <v>591</v>
       </c>
       <c r="L85" t="s">
-        <v>508</v>
+        <v>592</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>509</v>
+        <v>593</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -8038,41 +8698,45 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>508</v>
+        <v>592</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>7469</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>178609</v>
+      </c>
+      <c r="C86" t="s">
+        <v>594</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>510</v>
+        <v>595</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>511</v>
+        <v>596</v>
       </c>
       <c r="J86" t="s">
-        <v>512</v>
+        <v>597</v>
       </c>
       <c r="K86" t="s">
-        <v>513</v>
+        <v>598</v>
       </c>
       <c r="L86" t="s">
-        <v>514</v>
+        <v>599</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
@@ -8101,50 +8765,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>514</v>
+        <v>599</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>7469</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>2745</v>
+      </c>
+      <c r="C87" t="s">
+        <v>600</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>515</v>
+        <v>601</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>516</v>
+        <v>602</v>
       </c>
       <c r="J87" t="s">
-        <v>517</v>
+        <v>603</v>
       </c>
       <c r="K87" t="s">
-        <v>518</v>
+        <v>604</v>
       </c>
       <c r="L87" t="s">
-        <v>519</v>
+        <v>605</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>520</v>
+        <v>606</v>
       </c>
       <c r="O87" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8168,50 +8836,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>519</v>
+        <v>605</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>7469</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C88" t="s">
+        <v>607</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>521</v>
+        <v>608</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>522</v>
+        <v>609</v>
       </c>
       <c r="J88" t="s">
-        <v>523</v>
+        <v>610</v>
       </c>
       <c r="K88" t="s">
-        <v>524</v>
+        <v>611</v>
       </c>
       <c r="L88" t="s">
-        <v>525</v>
+        <v>612</v>
       </c>
       <c r="M88" t="n">
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>520</v>
+        <v>606</v>
       </c>
       <c r="O88" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8235,35 +8907,39 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>525</v>
+        <v>612</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>7469</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>1341</v>
+      </c>
+      <c r="C89" t="s">
+        <v>613</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>526</v>
+        <v>614</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>527</v>
+        <v>615</v>
       </c>
       <c r="J89" t="s">
-        <v>528</v>
+        <v>616</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s"/>
@@ -8271,10 +8947,10 @@
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>529</v>
+        <v>617</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8295,51 +8971,52 @@
       <c r="V89" t="n">
         <v>0</v>
       </c>
-      <c r="W89" t="s"/>
-      <c r="X89" t="s"/>
-      <c r="Y89" t="s"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>7469</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>15228</v>
+      </c>
+      <c r="C90" t="s">
+        <v>618</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>530</v>
+        <v>619</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>531</v>
+        <v>620</v>
       </c>
       <c r="J90" t="s">
-        <v>532</v>
+        <v>621</v>
       </c>
       <c r="K90" t="s">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="L90" t="s">
-        <v>534</v>
+        <v>623</v>
       </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>529</v>
+        <v>617</v>
       </c>
       <c r="O90" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P90" t="n">
         <v>1</v>
@@ -8363,50 +9040,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>535</v>
+        <v>624</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>7469</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>2273</v>
+      </c>
+      <c r="C91" t="s">
+        <v>625</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>536</v>
+        <v>626</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>537</v>
+        <v>627</v>
       </c>
       <c r="J91" t="s">
-        <v>538</v>
+        <v>628</v>
       </c>
       <c r="K91" t="s">
-        <v>539</v>
+        <v>629</v>
       </c>
       <c r="L91" t="s">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>541</v>
+        <v>631</v>
       </c>
       <c r="O91" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8430,50 +9111,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>540</v>
+        <v>630</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>7469</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>18617</v>
+      </c>
+      <c r="C92" t="s">
+        <v>632</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>542</v>
+        <v>633</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>543</v>
+        <v>634</v>
       </c>
       <c r="J92" t="s">
-        <v>544</v>
+        <v>635</v>
       </c>
       <c r="K92" t="s">
-        <v>545</v>
+        <v>636</v>
       </c>
       <c r="L92" t="s">
-        <v>546</v>
+        <v>637</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>541</v>
+        <v>631</v>
       </c>
       <c r="O92" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -8497,50 +9182,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>546</v>
+        <v>637</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>7469</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>4620</v>
+      </c>
+      <c r="C93" t="s">
+        <v>638</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>547</v>
+        <v>639</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>548</v>
+        <v>640</v>
       </c>
       <c r="J93" t="s">
-        <v>549</v>
+        <v>641</v>
       </c>
       <c r="K93" t="s">
-        <v>550</v>
+        <v>642</v>
       </c>
       <c r="L93" t="s">
-        <v>551</v>
+        <v>643</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>552</v>
+        <v>644</v>
       </c>
       <c r="O93" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8564,50 +9253,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>551</v>
+        <v>643</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>7469</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>178610</v>
+      </c>
+      <c r="C94" t="s">
+        <v>645</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>553</v>
+        <v>646</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>554</v>
+        <v>647</v>
       </c>
       <c r="J94" t="s">
-        <v>555</v>
+        <v>648</v>
       </c>
       <c r="K94" t="s">
-        <v>556</v>
+        <v>649</v>
       </c>
       <c r="L94" t="s">
-        <v>557</v>
+        <v>650</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>558</v>
+        <v>651</v>
       </c>
       <c r="O94" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P94" t="n">
         <v>2</v>
@@ -8629,50 +9322,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>557</v>
+        <v>650</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>7469</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>178611</v>
+      </c>
+      <c r="C95" t="s">
+        <v>652</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>559</v>
+        <v>653</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>560</v>
+        <v>654</v>
       </c>
       <c r="J95" t="s">
-        <v>561</v>
+        <v>655</v>
       </c>
       <c r="K95" t="s">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="L95" t="s">
-        <v>563</v>
+        <v>657</v>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>558</v>
+        <v>651</v>
       </c>
       <c r="O95" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P95" t="n">
         <v>1</v>
@@ -8696,50 +9393,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>563</v>
+        <v>657</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>7469</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>26890</v>
+      </c>
+      <c r="C96" t="s">
+        <v>658</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>564</v>
+        <v>659</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>565</v>
+        <v>660</v>
       </c>
       <c r="J96" t="s">
-        <v>566</v>
+        <v>661</v>
       </c>
       <c r="K96" t="s">
-        <v>567</v>
+        <v>662</v>
       </c>
       <c r="L96" t="s">
-        <v>568</v>
+        <v>663</v>
       </c>
       <c r="M96" t="n">
         <v>2</v>
       </c>
       <c r="N96" t="s">
-        <v>569</v>
+        <v>664</v>
       </c>
       <c r="O96" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P96" t="n">
         <v>2</v>
@@ -8763,50 +9464,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>568</v>
+        <v>663</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>7469</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>178612</v>
+      </c>
+      <c r="C97" t="s">
+        <v>665</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>570</v>
+        <v>666</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>571</v>
+        <v>667</v>
       </c>
       <c r="J97" t="s">
-        <v>572</v>
+        <v>668</v>
       </c>
       <c r="K97" t="s">
-        <v>573</v>
+        <v>669</v>
       </c>
       <c r="L97" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>569</v>
+        <v>664</v>
       </c>
       <c r="O97" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8830,50 +9535,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>7469</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>178611</v>
+      </c>
+      <c r="C98" t="s">
+        <v>665</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>575</v>
+        <v>671</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>576</v>
+        <v>672</v>
       </c>
       <c r="J98" t="s">
-        <v>577</v>
+        <v>673</v>
       </c>
       <c r="K98" t="s">
-        <v>578</v>
+        <v>674</v>
       </c>
       <c r="L98" t="s">
-        <v>579</v>
+        <v>675</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>580</v>
+        <v>676</v>
       </c>
       <c r="O98" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8897,50 +9606,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>579</v>
+        <v>675</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>7469</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>178613</v>
+      </c>
+      <c r="C99" t="s">
+        <v>677</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>581</v>
+        <v>678</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>582</v>
+        <v>679</v>
       </c>
       <c r="J99" t="s">
-        <v>583</v>
+        <v>680</v>
       </c>
       <c r="K99" t="s">
-        <v>584</v>
+        <v>681</v>
       </c>
       <c r="L99" t="s">
-        <v>585</v>
+        <v>682</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>580</v>
+        <v>676</v>
       </c>
       <c r="O99" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P99" t="n">
         <v>1</v>
@@ -8964,50 +9677,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>586</v>
+        <v>683</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>7469</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C100" t="s">
+        <v>684</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>587</v>
+        <v>685</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>588</v>
+        <v>686</v>
       </c>
       <c r="J100" t="s">
-        <v>589</v>
+        <v>687</v>
       </c>
       <c r="K100" t="s">
-        <v>590</v>
+        <v>688</v>
       </c>
       <c r="L100" t="s">
-        <v>591</v>
+        <v>689</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>580</v>
+        <v>676</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9031,50 +9748,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>591</v>
+        <v>689</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>7469</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>178614</v>
+      </c>
+      <c r="C101" t="s">
+        <v>690</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>592</v>
+        <v>691</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>593</v>
+        <v>692</v>
       </c>
       <c r="J101" t="s">
-        <v>594</v>
+        <v>693</v>
       </c>
       <c r="K101" t="s">
-        <v>595</v>
+        <v>694</v>
       </c>
       <c r="L101" t="s">
-        <v>596</v>
+        <v>695</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>597</v>
+        <v>696</v>
       </c>
       <c r="O101" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -9098,50 +9819,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>596</v>
+        <v>695</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>7469</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>178615</v>
+      </c>
+      <c r="C102" t="s">
+        <v>697</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>598</v>
+        <v>698</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>599</v>
+        <v>699</v>
       </c>
       <c r="J102" t="s">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K102" t="s">
-        <v>601</v>
+        <v>701</v>
       </c>
       <c r="L102" t="s">
-        <v>602</v>
+        <v>702</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>597</v>
+        <v>696</v>
       </c>
       <c r="O102" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P102" t="n">
         <v>2</v>
@@ -9165,50 +9890,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>602</v>
+        <v>702</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>7469</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>9597</v>
+      </c>
+      <c r="C103" t="s">
+        <v>703</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>603</v>
+        <v>704</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>604</v>
+        <v>705</v>
       </c>
       <c r="J103" t="s">
-        <v>605</v>
+        <v>706</v>
       </c>
       <c r="K103" t="s">
-        <v>606</v>
+        <v>707</v>
       </c>
       <c r="L103" t="s">
-        <v>607</v>
+        <v>708</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>608</v>
+        <v>709</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9232,50 +9961,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>607</v>
+        <v>708</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>7469</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>178616</v>
+      </c>
+      <c r="C104" t="s">
+        <v>710</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>609</v>
+        <v>711</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>610</v>
+        <v>712</v>
       </c>
       <c r="J104" t="s">
-        <v>611</v>
+        <v>713</v>
       </c>
       <c r="K104" t="s">
-        <v>612</v>
+        <v>714</v>
       </c>
       <c r="L104" t="s">
-        <v>613</v>
+        <v>715</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>614</v>
+        <v>716</v>
       </c>
       <c r="O104" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -9299,50 +10032,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>615</v>
+        <v>717</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>7469</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C105" t="s">
+        <v>684</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>616</v>
+        <v>718</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>617</v>
+        <v>719</v>
       </c>
       <c r="J105" t="s">
-        <v>618</v>
+        <v>720</v>
       </c>
       <c r="K105" t="s">
-        <v>619</v>
+        <v>721</v>
       </c>
       <c r="L105" t="s">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
       <c r="N105" t="s">
-        <v>614</v>
+        <v>716</v>
       </c>
       <c r="O105" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P105" t="n">
         <v>3</v>
@@ -9366,50 +10103,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>620</v>
+        <v>722</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>7469</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>178617</v>
+      </c>
+      <c r="C106" t="s">
+        <v>723</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>621</v>
+        <v>724</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>622</v>
+        <v>725</v>
       </c>
       <c r="J106" t="s">
-        <v>623</v>
+        <v>726</v>
       </c>
       <c r="K106" t="s">
-        <v>624</v>
+        <v>727</v>
       </c>
       <c r="L106" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>626</v>
+        <v>729</v>
       </c>
       <c r="O106" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -9433,50 +10174,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>7469</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>178607</v>
+      </c>
+      <c r="C107" t="s">
+        <v>580</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>627</v>
+        <v>730</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>628</v>
+        <v>731</v>
       </c>
       <c r="J107" t="s">
-        <v>629</v>
+        <v>732</v>
       </c>
       <c r="K107" t="s">
-        <v>630</v>
+        <v>733</v>
       </c>
       <c r="L107" t="s">
-        <v>631</v>
+        <v>734</v>
       </c>
       <c r="M107" t="n">
         <v>3</v>
       </c>
       <c r="N107" t="s">
-        <v>632</v>
+        <v>735</v>
       </c>
       <c r="O107" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P107" t="n">
         <v>4</v>
@@ -9500,50 +10245,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>631</v>
+        <v>734</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>7469</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>178618</v>
+      </c>
+      <c r="C108" t="s">
+        <v>736</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>633</v>
+        <v>737</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>634</v>
+        <v>738</v>
       </c>
       <c r="J108" t="s">
-        <v>635</v>
+        <v>739</v>
       </c>
       <c r="K108" t="s">
-        <v>636</v>
+        <v>740</v>
       </c>
       <c r="L108" t="s">
-        <v>637</v>
+        <v>741</v>
       </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
       <c r="N108" t="s">
-        <v>632</v>
+        <v>735</v>
       </c>
       <c r="O108" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P108" t="n">
         <v>3</v>
@@ -9565,50 +10314,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>637</v>
+        <v>741</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>7469</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>178619</v>
+      </c>
+      <c r="C109" t="s">
+        <v>742</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>638</v>
+        <v>743</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>639</v>
+        <v>744</v>
       </c>
       <c r="J109" t="s">
-        <v>640</v>
+        <v>745</v>
       </c>
       <c r="K109" t="s">
-        <v>641</v>
+        <v>746</v>
       </c>
       <c r="L109" t="s">
-        <v>642</v>
+        <v>747</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>632</v>
+        <v>735</v>
       </c>
       <c r="O109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9632,50 +10385,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>642</v>
+        <v>747</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>7469</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>38633</v>
+      </c>
+      <c r="C110" t="s">
+        <v>748</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>643</v>
+        <v>749</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>644</v>
+        <v>750</v>
       </c>
       <c r="J110" t="s">
-        <v>645</v>
+        <v>751</v>
       </c>
       <c r="K110" t="s">
-        <v>646</v>
+        <v>752</v>
       </c>
       <c r="L110" t="s">
-        <v>647</v>
+        <v>753</v>
       </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
       <c r="N110" t="s">
-        <v>648</v>
+        <v>754</v>
       </c>
       <c r="O110" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P110" t="n">
         <v>2</v>
@@ -9699,41 +10456,45 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>649</v>
+        <v>755</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>7469</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>178620</v>
+      </c>
+      <c r="C111" t="s">
+        <v>756</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>650</v>
+        <v>757</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>651</v>
+        <v>758</v>
       </c>
       <c r="J111" t="s">
-        <v>652</v>
+        <v>759</v>
       </c>
       <c r="K111" t="s">
-        <v>653</v>
+        <v>760</v>
       </c>
       <c r="L111" t="s">
-        <v>654</v>
+        <v>761</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
@@ -9762,50 +10523,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>654</v>
+        <v>761</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>7469</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>178621</v>
+      </c>
+      <c r="C112" t="s">
+        <v>762</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>655</v>
+        <v>763</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>656</v>
+        <v>764</v>
       </c>
       <c r="J112" t="s">
-        <v>657</v>
+        <v>765</v>
       </c>
       <c r="K112" t="s">
-        <v>658</v>
+        <v>766</v>
       </c>
       <c r="L112" t="s">
-        <v>659</v>
+        <v>767</v>
       </c>
       <c r="M112" t="n">
         <v>4</v>
       </c>
       <c r="N112" t="s">
-        <v>660</v>
+        <v>768</v>
       </c>
       <c r="O112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P112" t="n">
         <v>4</v>
@@ -9825,50 +10590,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>659</v>
+        <v>767</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>7469</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>178622</v>
+      </c>
+      <c r="C113" t="s">
+        <v>769</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>661</v>
+        <v>770</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>662</v>
+        <v>771</v>
       </c>
       <c r="J113" t="s">
-        <v>663</v>
+        <v>772</v>
       </c>
       <c r="K113" t="s">
-        <v>664</v>
+        <v>773</v>
       </c>
       <c r="L113" t="s">
-        <v>665</v>
+        <v>774</v>
       </c>
       <c r="M113" t="n">
         <v>4</v>
       </c>
       <c r="N113" t="s">
-        <v>666</v>
+        <v>775</v>
       </c>
       <c r="O113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P113" t="n">
         <v>5</v>
@@ -9892,50 +10661,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>665</v>
+        <v>774</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>7469</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>178623</v>
+      </c>
+      <c r="C114" t="s">
+        <v>776</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>667</v>
+        <v>777</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>668</v>
+        <v>778</v>
       </c>
       <c r="J114" t="s">
-        <v>669</v>
+        <v>779</v>
       </c>
       <c r="K114" t="s">
-        <v>670</v>
+        <v>780</v>
       </c>
       <c r="L114" t="s">
-        <v>671</v>
+        <v>781</v>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
       <c r="N114" t="s">
-        <v>672</v>
+        <v>782</v>
       </c>
       <c r="O114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P114" t="n">
         <v>1</v>
@@ -9953,50 +10726,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>673</v>
+        <v>783</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>7469</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>178624</v>
+      </c>
+      <c r="C115" t="s">
+        <v>784</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>674</v>
+        <v>785</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>675</v>
+        <v>786</v>
       </c>
       <c r="J115" t="s">
-        <v>676</v>
+        <v>787</v>
       </c>
       <c r="K115" t="s">
-        <v>677</v>
+        <v>788</v>
       </c>
       <c r="L115" t="s">
-        <v>678</v>
+        <v>789</v>
       </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>672</v>
+        <v>782</v>
       </c>
       <c r="O115" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P115" t="n">
         <v>1</v>
@@ -10020,7 +10797,7 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>678</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
